--- a/AAII_Financials/Quarterly/BTBT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BTBT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>BTBT</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,104 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42825</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>700</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>4500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4200</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1400</v>
       </c>
       <c r="J8" s="3">
         <v>1400</v>
       </c>
       <c r="K8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L8" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>700</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
@@ -772,20 +779,23 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3">
         <v>4500</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
@@ -801,8 +811,11 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -814,37 +827,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3">
         <v>400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>200</v>
-      </c>
-      <c r="G12" s="3">
-        <v>300</v>
       </c>
       <c r="H12" s="3">
         <v>300</v>
       </c>
       <c r="I12" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J12" s="3">
         <v>100</v>
       </c>
       <c r="K12" s="3">
+        <v>100</v>
+      </c>
+      <c r="L12" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,8 +889,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -901,37 +921,43 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -940,66 +966,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E17" s="3">
         <v>4400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4700</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1800</v>
       </c>
       <c r="J17" s="3">
         <v>1800</v>
       </c>
       <c r="K17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L17" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-400</v>
       </c>
       <c r="E18" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-5300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-400</v>
       </c>
       <c r="J18" s="3">
         <v>-400</v>
       </c>
       <c r="K18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1011,26 +1044,27 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1040,25 +1074,28 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-300</v>
       </c>
       <c r="E21" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-6400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-700</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-400</v>
       </c>
       <c r="I21" s="3">
         <v>-400</v>
@@ -1067,10 +1104,13 @@
         <v>-400</v>
       </c>
       <c r="K21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L21" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1098,54 +1138,60 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-400</v>
       </c>
       <c r="J23" s="3">
         <v>-400</v>
       </c>
       <c r="K23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>800</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="F24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="3">
         <v>-500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>-100</v>
       </c>
       <c r="I24" s="3">
         <v>-100</v>
@@ -1154,10 +1200,13 @@
         <v>-100</v>
       </c>
       <c r="K24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1185,66 +1234,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-300</v>
       </c>
       <c r="J26" s="3">
         <v>-300</v>
       </c>
       <c r="K26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1272,37 +1330,43 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>-3700</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1330,8 +1394,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1359,26 +1426,29 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F32" s="3">
         <v>1200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1388,37 +1458,43 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1446,71 +1522,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42825</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1522,8 +1607,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1535,95 +1621,105 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6200</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="3">
         <v>500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>700</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1651,8 +1747,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1660,57 +1759,63 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>700</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7600</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1738,22 +1843,25 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="E48" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
         <v>700</v>
       </c>
       <c r="G48" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="H48" s="3">
         <v>100</v>
@@ -1764,11 +1872,14 @@
       <c r="J48" s="3">
         <v>100</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3">
+        <v>100</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1796,8 +1907,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1825,8 +1939,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1854,37 +1971,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E52" s="3">
         <v>4000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1300</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1912,37 +2035,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E54" s="3">
         <v>4500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>12500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>15300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>12900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>13000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9000</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1954,8 +2083,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1967,28 +2097,29 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
-      </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -1996,8 +2127,11 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2025,66 +2159,75 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E59" s="3">
         <v>400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2400</v>
-      </c>
-      <c r="F59" s="3">
-        <v>400</v>
       </c>
       <c r="G59" s="3">
         <v>400</v>
       </c>
       <c r="H59" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I59" s="3">
         <v>500</v>
       </c>
       <c r="J59" s="3">
+        <v>500</v>
+      </c>
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E60" s="3">
         <v>400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2400</v>
-      </c>
-      <c r="F60" s="3">
-        <v>400</v>
       </c>
       <c r="G60" s="3">
         <v>400</v>
       </c>
       <c r="H60" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I60" s="3">
         <v>500</v>
       </c>
       <c r="J60" s="3">
+        <v>500</v>
+      </c>
+      <c r="K60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2112,8 +2255,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2141,8 +2287,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2170,8 +2319,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2199,8 +2351,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2228,37 +2383,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E66" s="3">
         <v>700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1300</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2270,8 +2431,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2299,8 +2461,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2328,8 +2493,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2357,8 +2525,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2386,37 +2557,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-13800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-10800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-200</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2444,8 +2621,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2473,8 +2653,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2502,37 +2685,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E76" s="3">
         <v>3800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>11600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>14300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>11600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7700</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2560,71 +2749,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42825</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2636,22 +2834,23 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -2665,8 +2864,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2694,8 +2896,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2723,8 +2928,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2752,8 +2960,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2781,8 +2992,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2810,37 +3024,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E89" s="3">
         <v>600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2852,23 +3072,24 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>-11200</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -2879,10 +3100,13 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2910,8 +3134,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2939,23 +3166,26 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>-10700</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3">
         <v>-3300</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -2966,10 +3196,13 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2981,8 +3214,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3010,8 +3244,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3039,8 +3276,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3068,8 +3308,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3097,91 +3340,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>13500</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>5700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-400</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>300</v>
-      </c>
-      <c r="I101" s="3">
-        <v>100</v>
       </c>
       <c r="J101" s="3">
         <v>100</v>
       </c>
       <c r="K101" s="3">
+        <v>100</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-7700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BTBT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BTBT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>BTBT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,114 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42825</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E8" s="3">
         <v>700</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>4500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4200</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1400</v>
       </c>
       <c r="K8" s="3">
         <v>1400</v>
       </c>
       <c r="L8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M8" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E9" s="3">
         <v>700</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
@@ -782,23 +789,26 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3">
         <v>4500</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
@@ -814,8 +824,11 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -828,8 +841,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -839,29 +853,32 @@
       <c r="E12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3">
         <v>400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>200</v>
-      </c>
-      <c r="H12" s="3">
-        <v>300</v>
       </c>
       <c r="I12" s="3">
         <v>300</v>
       </c>
       <c r="J12" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K12" s="3">
         <v>100</v>
       </c>
       <c r="L12" s="3">
+        <v>100</v>
+      </c>
+      <c r="M12" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -892,8 +909,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -924,17 +944,20 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E15" s="3">
         <v>100</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F15" s="3" t="s">
         <v>4</v>
       </c>
@@ -950,14 +973,17 @@
       <c r="J15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -967,72 +993,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E17" s="3">
         <v>1100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4700</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1800</v>
       </c>
       <c r="K17" s="3">
         <v>1800</v>
       </c>
       <c r="L17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M17" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-400</v>
       </c>
       <c r="K18" s="3">
         <v>-400</v>
       </c>
       <c r="L18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1045,8 +1078,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1054,20 +1088,20 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1077,28 +1111,31 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-6400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-700</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-400</v>
       </c>
       <c r="J21" s="3">
         <v>-400</v>
@@ -1107,10 +1144,13 @@
         <v>-400</v>
       </c>
       <c r="L21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M21" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1141,60 +1181,66 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-400</v>
       </c>
       <c r="K23" s="3">
         <v>-400</v>
       </c>
       <c r="L23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>800</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="G24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="3">
         <v>-500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-100</v>
       </c>
       <c r="J24" s="3">
         <v>-100</v>
@@ -1203,10 +1249,13 @@
         <v>-100</v>
       </c>
       <c r="L24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1237,72 +1286,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-300</v>
       </c>
       <c r="K26" s="3">
         <v>-300</v>
       </c>
       <c r="L26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1333,17 +1391,20 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E29" s="3">
         <v>-3700</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F29" s="3" t="s">
         <v>4</v>
       </c>
@@ -1359,14 +1420,17 @@
       <c r="J29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1397,8 +1461,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1429,8 +1496,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1438,20 +1508,20 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1461,40 +1531,46 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1525,77 +1601,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42825</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1608,8 +1693,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1622,49 +1708,53 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E41" s="3">
         <v>2500</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6200</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>700</v>
+      </c>
+      <c r="E42" s="3">
         <v>200</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>4</v>
       </c>
@@ -1680,46 +1770,52 @@
       <c r="J42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3">
         <v>500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>700</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1750,8 +1846,11 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1762,60 +1861,66 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>700</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>10100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7600</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1846,25 +1951,28 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E48" s="3">
         <v>4400</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
       <c r="F48" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
         <v>700</v>
       </c>
       <c r="H48" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="I48" s="3">
         <v>100</v>
@@ -1875,11 +1983,14 @@
       <c r="K48" s="3">
         <v>100</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>100</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1910,8 +2021,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1942,8 +2056,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1974,40 +2091,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="3">
         <v>6900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1300</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2038,40 +2161,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E54" s="3">
         <v>14000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>12500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>15300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>12900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>13000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9000</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2084,8 +2213,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2098,17 +2228,18 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2121,8 +2252,8 @@
       <c r="I57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -2130,8 +2261,11 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2162,72 +2296,81 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2400</v>
-      </c>
-      <c r="G59" s="3">
-        <v>400</v>
       </c>
       <c r="H59" s="3">
         <v>400</v>
       </c>
       <c r="I59" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J59" s="3">
         <v>500</v>
       </c>
       <c r="K59" s="3">
+        <v>500</v>
+      </c>
+      <c r="L59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>800</v>
+      </c>
+      <c r="E60" s="3">
         <v>1200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2400</v>
-      </c>
-      <c r="G60" s="3">
-        <v>400</v>
       </c>
       <c r="H60" s="3">
         <v>400</v>
       </c>
       <c r="I60" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J60" s="3">
         <v>500</v>
       </c>
       <c r="K60" s="3">
+        <v>500</v>
+      </c>
+      <c r="L60" s="3">
         <v>400</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2258,8 +2401,11 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2290,8 +2436,11 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2322,8 +2471,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2354,8 +2506,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2386,40 +2541,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1300</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2432,8 +2593,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2464,8 +2626,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2496,8 +2661,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2528,8 +2696,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2560,40 +2731,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-17900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-13800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-10800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-200</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2624,8 +2801,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2656,8 +2836,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2688,40 +2871,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E76" s="3">
         <v>12500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>14300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>11800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7700</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2752,77 +2941,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42825</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2835,25 +3033,26 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E83" s="3">
         <v>100</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -2867,8 +3066,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2899,8 +3101,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2931,8 +3136,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2963,8 +3171,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2995,8 +3206,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3027,40 +3241,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3073,26 +3293,27 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-11200</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
@@ -3103,10 +3324,13 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3137,8 +3361,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3169,26 +3396,29 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-10700</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3">
         <v>-3300</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -3199,10 +3429,13 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3215,8 +3448,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3247,8 +3481,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3279,8 +3516,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3311,8 +3551,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3343,40 +3586,46 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E100" s="3">
         <v>13500</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>5700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-400</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3384,59 +3633,65 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
-      </c>
-      <c r="J101" s="3">
-        <v>100</v>
       </c>
       <c r="K101" s="3">
         <v>100</v>
       </c>
       <c r="L101" s="3">
+        <v>100</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E102" s="3">
         <v>1900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-7700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BTBT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BTBT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>BTBT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,120 +665,133 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20400</v>
+      </c>
+      <c r="F8" s="3">
         <v>7900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>700</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>4500</v>
       </c>
-      <c r="H8" s="3">
-        <v>3000</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>4900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>13400</v>
+      </c>
+      <c r="F9" s="3">
         <v>6200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>700</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
+      <c r="I9" s="3">
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
@@ -792,29 +805,35 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F10" s="3">
         <v>1700</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3">
         <v>4500</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
@@ -827,8 +846,14 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -842,8 +867,10 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -856,29 +883,35 @@
       <c r="F12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="3">
         <v>400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -912,8 +945,14 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -947,43 +986,55 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F15" s="3">
         <v>1200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>100</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
+      <c r="H15" s="3">
+        <v>0</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -994,78 +1045,92 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>18900</v>
+      </c>
+      <c r="F17" s="3">
         <v>7800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1100</v>
       </c>
-      <c r="F17" s="3">
-        <v>4400</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I17" s="3">
         <v>9800</v>
       </c>
-      <c r="H17" s="3">
-        <v>6300</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K17" s="3">
         <v>5700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>4700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F18" s="3">
         <v>100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I18" s="3">
         <v>-5300</v>
       </c>
-      <c r="H18" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1079,78 +1144,92 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>10400</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="F20" s="3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>39700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F21" s="3">
         <v>1300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I21" s="3">
         <v>-6400</v>
       </c>
-      <c r="H21" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K21" s="3">
         <v>-700</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-400</v>
       </c>
       <c r="L21" s="3">
         <v>-400</v>
       </c>
       <c r="M21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O21" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1184,78 +1263,96 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>36100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F23" s="3">
         <v>100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I23" s="3">
         <v>-6500</v>
       </c>
-      <c r="H23" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>4</v>
+      <c r="D24" s="3">
+        <v>300</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>800</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
-      </c>
-      <c r="J24" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K24" s="3">
-        <v>-100</v>
       </c>
       <c r="L24" s="3">
         <v>-100</v>
       </c>
       <c r="M24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1289,78 +1386,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>35800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F26" s="3">
         <v>100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I26" s="3">
         <v>-6500</v>
       </c>
-      <c r="H26" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>35800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F27" s="3">
         <v>100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I27" s="3">
         <v>-6500</v>
       </c>
-      <c r="H27" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1394,43 +1509,55 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>-100</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G29" s="3">
         <v>-3700</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>4</v>
+      <c r="H29" s="3">
+        <v>-7700</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>4</v>
+      <c r="J29" s="3">
+        <v>-1600</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1464,8 +1591,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1499,78 +1632,96 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-10400</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="F32" s="3">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>1200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>35800</v>
       </c>
       <c r="E33" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-4100</v>
       </c>
-      <c r="F33" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="I33" s="3">
         <v>-6500</v>
       </c>
-      <c r="H33" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1604,83 +1755,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>35800</v>
       </c>
       <c r="E35" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-4100</v>
       </c>
-      <c r="F35" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="I35" s="3">
         <v>-6500</v>
       </c>
-      <c r="H35" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1694,8 +1863,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1709,58 +1880,66 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>400</v>
+      </c>
+      <c r="F41" s="3">
         <v>2300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2500</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>10000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>5500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>5600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>6200</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E42" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F42" s="3">
         <v>700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>200</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>4</v>
       </c>
@@ -1773,14 +1952,20 @@
       <c r="K42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1790,32 +1975,38 @@
       <c r="E43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3">
         <v>500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>700</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1849,101 +2040,119 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>4900</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>3200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>4300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>3900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>700</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F46" s="3">
         <v>3000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>5700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>12100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>10100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>9600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>7600</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>1000</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -1954,31 +2163,37 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>29800</v>
+      </c>
+      <c r="F48" s="3">
         <v>17700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>4400</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
         <v>700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>700</v>
-      </c>
-      <c r="I48" s="3">
-        <v>100</v>
-      </c>
-      <c r="J48" s="3">
-        <v>100</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
@@ -1986,11 +2201,17 @@
       <c r="L48" s="3">
         <v>100</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>100</v>
+      </c>
+      <c r="N48" s="3">
+        <v>100</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2024,8 +2245,14 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2059,8 +2286,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2094,43 +2327,55 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>14400</v>
       </c>
       <c r="E52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3">
         <v>6900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>4000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>5400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>6100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>3100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>2800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>3300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1300</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2164,43 +2409,55 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>78100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>39900</v>
+      </c>
+      <c r="F54" s="3">
         <v>20600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>14000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>4500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>7500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>12500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>15300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>12900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>13000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>9000</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2214,8 +2471,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2229,23 +2488,25 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2255,40 +2516,46 @@
       <c r="J57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3">
-        <v>0</v>
+      <c r="K57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>1300</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2299,78 +2566,96 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>500</v>
+      </c>
+      <c r="G59" s="3">
         <v>1100</v>
-      </c>
-      <c r="F59" s="3">
-        <v>400</v>
-      </c>
-      <c r="G59" s="3">
-        <v>2400</v>
       </c>
       <c r="H59" s="3">
         <v>400</v>
       </c>
       <c r="I59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
+        <v>400</v>
+      </c>
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F60" s="3">
         <v>800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1200</v>
-      </c>
-      <c r="F60" s="3">
-        <v>400</v>
-      </c>
-      <c r="G60" s="3">
-        <v>2400</v>
       </c>
       <c r="H60" s="3">
         <v>400</v>
       </c>
       <c r="I60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J60" s="3">
         <v>400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
+        <v>400</v>
+      </c>
+      <c r="L60" s="3">
         <v>500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>400</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2404,31 +2689,37 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>0</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -2439,8 +2730,14 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2474,8 +2771,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2509,8 +2812,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2544,43 +2853,55 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F66" s="3">
         <v>800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1300</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2594,8 +2915,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2629,8 +2952,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2664,8 +2993,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2699,8 +3034,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2734,43 +3075,55 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-18400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-17900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-13800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-10800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-4300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-1600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-200</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2804,8 +3157,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2839,8 +3198,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2874,43 +3239,55 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>75000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>38000</v>
+      </c>
+      <c r="F76" s="3">
         <v>19900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>12500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>3800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>5200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>11600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>14300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>11800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>11600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>7700</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2944,83 +3321,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>35800</v>
       </c>
       <c r="E81" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-4100</v>
       </c>
-      <c r="F81" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="I81" s="3">
         <v>-6500</v>
       </c>
-      <c r="H81" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3034,31 +3429,33 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F83" s="3">
         <v>1200</v>
-      </c>
-      <c r="E83" s="3">
-        <v>100</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
       </c>
       <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -3069,8 +3466,14 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3104,8 +3507,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3139,8 +3548,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3174,8 +3589,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3209,8 +3630,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3244,43 +3671,55 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-7700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
-        <v>600</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I89" s="3">
         <v>-2000</v>
       </c>
-      <c r="H89" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3294,31 +3733,33 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-7600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-11200</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H91" s="3">
-        <v>-700</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3327,10 +3768,16 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3364,8 +3811,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3399,32 +3852,38 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-10700</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3">
         <v>-3300</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -3432,10 +3891,16 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3449,8 +3914,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3484,8 +3951,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3519,8 +3992,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3554,8 +4033,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3589,109 +4074,133 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="F100" s="3">
         <v>6500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>13500</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H100" s="3">
-        <v>200</v>
-      </c>
-      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J100" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K100" s="3">
         <v>5700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-400</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1900</v>
       </c>
-      <c r="F102" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="I102" s="3">
         <v>-1900</v>
       </c>
-      <c r="H102" s="3">
-        <v>-7700</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K102" s="3">
         <v>5100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>6700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BTBT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BTBT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>BTBT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,136 +665,143 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E8" s="3">
         <v>44000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>20400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>700</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>4500</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>4900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4200</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1400</v>
       </c>
       <c r="N8" s="3">
         <v>1400</v>
       </c>
       <c r="O8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P8" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E9" s="3">
         <v>12500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>13400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>700</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
@@ -811,32 +818,35 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E10" s="3">
         <v>31500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1700</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3">
         <v>4500</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
@@ -852,8 +862,11 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -869,8 +882,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -889,29 +903,32 @@
       <c r="H12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="3">
         <v>400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>200</v>
-      </c>
-      <c r="K12" s="3">
-        <v>300</v>
       </c>
       <c r="L12" s="3">
         <v>300</v>
       </c>
       <c r="M12" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N12" s="3">
         <v>100</v>
       </c>
       <c r="O12" s="3">
+        <v>100</v>
+      </c>
+      <c r="P12" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -951,31 +968,34 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>9000</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -992,34 +1012,37 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E15" s="3">
         <v>3700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>3300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>100</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>4</v>
@@ -1027,14 +1050,17 @@
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1047,90 +1073,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E17" s="3">
         <v>18300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>18900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4700</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1800</v>
       </c>
       <c r="N17" s="3">
         <v>1800</v>
       </c>
       <c r="O17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P17" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E18" s="3">
         <v>25700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-400</v>
       </c>
       <c r="N18" s="3">
         <v>-400</v>
       </c>
       <c r="O18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1146,20 +1179,21 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E20" s="3">
         <v>10400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1167,17 +1201,17 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1187,37 +1221,40 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E21" s="3">
         <v>39700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>5500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-6400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-700</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-400</v>
       </c>
       <c r="M21" s="3">
         <v>-400</v>
@@ -1226,10 +1263,13 @@
         <v>-400</v>
       </c>
       <c r="O21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P21" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1269,58 +1309,64 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E23" s="3">
         <v>36100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-400</v>
       </c>
       <c r="N23" s="3">
         <v>-400</v>
       </c>
       <c r="O23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1330,17 +1376,17 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
-      </c>
-      <c r="L24" s="3">
-        <v>-100</v>
       </c>
       <c r="M24" s="3">
         <v>-100</v>
@@ -1349,10 +1395,13 @@
         <v>-100</v>
       </c>
       <c r="O24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1392,90 +1441,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E26" s="3">
         <v>35800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-300</v>
       </c>
       <c r="N26" s="3">
         <v>-300</v>
       </c>
       <c r="O26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E27" s="3">
         <v>35800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1515,8 +1573,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1524,40 +1585,43 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
         <v>-100</v>
       </c>
       <c r="G29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H29" s="3">
         <v>-3700</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-7700</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K29" s="3">
         <v>-1600</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1597,8 +1661,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1638,20 +1705,23 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-10400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1659,17 +1729,17 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>1200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -1679,49 +1749,55 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E33" s="3">
         <v>35800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2200</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-4100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-9500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1761,95 +1837,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E35" s="3">
         <v>35800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2200</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-4100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-9500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1865,8 +1950,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1882,67 +1968,71 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2500</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6200</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E42" s="3">
         <v>29400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>6200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>200</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>4</v>
       </c>
@@ -1958,14 +2048,17 @@
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1981,32 +2074,35 @@
       <c r="G43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>700</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2046,20 +2142,23 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E45" s="3">
         <v>4900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2100</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
@@ -2067,77 +2166,83 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>700</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>59600</v>
+      </c>
+      <c r="E46" s="3">
         <v>34500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7600</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>1000</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
+      <c r="E47" s="3">
+        <v>1000</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>4</v>
@@ -2154,8 +2259,8 @@
       <c r="J47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2169,34 +2274,37 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E48" s="3">
         <v>28200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>29800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>17700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4400</v>
       </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
       <c r="I48" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="J48" s="3">
         <v>700</v>
       </c>
       <c r="K48" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="L48" s="3">
         <v>100</v>
@@ -2207,11 +2315,14 @@
       <c r="N48" s="3">
         <v>100</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>100</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2251,8 +2362,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2292,8 +2406,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2333,49 +2450,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E52" s="3">
         <v>14400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1300</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3">
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3">
         <v>6900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1300</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2415,49 +2538,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>108100</v>
+      </c>
+      <c r="E54" s="3">
         <v>78100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>39900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>20600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>14000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>12500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9000</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2473,8 +2602,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2490,26 +2620,27 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1400</v>
+        <v>2500</v>
       </c>
       <c r="E57" s="3">
         <v>1400</v>
       </c>
       <c r="F57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2522,8 +2653,8 @@
       <c r="L57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
+      <c r="M57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -2531,17 +2662,20 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="3">
         <v>1300</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2557,8 +2691,8 @@
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2572,90 +2706,99 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
         <v>400</v>
-      </c>
-      <c r="E59" s="3">
-        <v>500</v>
       </c>
       <c r="F59" s="3">
         <v>500</v>
       </c>
       <c r="G59" s="3">
+        <v>500</v>
+      </c>
+      <c r="H59" s="3">
         <v>1100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2400</v>
-      </c>
-      <c r="J59" s="3">
-        <v>400</v>
       </c>
       <c r="K59" s="3">
         <v>400</v>
       </c>
       <c r="L59" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M59" s="3">
         <v>500</v>
       </c>
       <c r="N59" s="3">
+        <v>500</v>
+      </c>
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E60" s="3">
         <v>3100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2400</v>
-      </c>
-      <c r="J60" s="3">
-        <v>400</v>
       </c>
       <c r="K60" s="3">
         <v>400</v>
       </c>
       <c r="L60" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M60" s="3">
         <v>500</v>
       </c>
       <c r="N60" s="3">
+        <v>500</v>
+      </c>
+      <c r="O60" s="3">
         <v>400</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2695,16 +2838,19 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>0</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
+      <c r="E62" s="3">
+        <v>0</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>4</v>
@@ -2721,8 +2867,8 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -2736,8 +2882,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2777,8 +2926,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2818,8 +2970,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2859,49 +3014,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E66" s="3">
         <v>3100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1300</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2917,8 +3078,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2958,8 +3120,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2999,8 +3164,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3040,8 +3208,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3081,49 +3252,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E72" s="3">
         <v>20100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-15700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-18400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-17900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-10800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-200</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3163,8 +3340,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3204,8 +3384,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3245,49 +3428,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>104800</v>
+      </c>
+      <c r="E76" s="3">
         <v>75000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>38000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>19900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7700</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3327,95 +3516,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E81" s="3">
         <v>35800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2200</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-4100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-9500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3431,34 +3629,35 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E83" s="3">
         <v>3700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3472,8 +3671,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3513,8 +3715,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3554,8 +3759,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3595,8 +3803,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3636,8 +3847,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3677,49 +3891,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-2500</v>
+        <v>-2300</v>
       </c>
       <c r="E89" s="3">
         <v>-2500</v>
       </c>
       <c r="F89" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G89" s="3">
         <v>-7700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3735,35 +3955,36 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>6700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-11200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K91" s="3">
         <v>-800</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
@@ -3774,10 +3995,13 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3817,8 +4041,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3858,35 +4085,38 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E94" s="3">
         <v>1100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>8600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-10700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-900</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3300</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -3897,10 +4127,13 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3916,8 +4149,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3957,8 +4191,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3998,8 +4235,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4039,8 +4279,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4080,57 +4323,63 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E100" s="3">
         <v>1300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-8300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>6500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>13500</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K100" s="3">
         <v>5900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-400</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
+      <c r="E101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -4145,62 +4394,68 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K101" s="3">
         <v>-100</v>
       </c>
       <c r="L101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M101" s="3">
         <v>300</v>
-      </c>
-      <c r="M101" s="3">
-        <v>100</v>
       </c>
       <c r="N101" s="3">
         <v>100</v>
       </c>
       <c r="O101" s="3">
+        <v>100</v>
+      </c>
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>6700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BTBT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BTBT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>BTBT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,146 +665,153 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E8" s="3">
         <v>28300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>44000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>20400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>700</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>4500</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>4900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4200</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1400</v>
       </c>
       <c r="O8" s="3">
         <v>1400</v>
       </c>
       <c r="P8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q8" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E9" s="3">
         <v>10900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>12500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>13400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>700</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
@@ -821,35 +828,38 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E10" s="3">
         <v>17400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>31500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1700</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3">
         <v>4500</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
@@ -865,8 +875,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -883,8 +896,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -906,29 +920,32 @@
       <c r="I12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="3">
         <v>400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>200</v>
-      </c>
-      <c r="L12" s="3">
-        <v>300</v>
       </c>
       <c r="M12" s="3">
         <v>300</v>
       </c>
       <c r="N12" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O12" s="3">
         <v>100</v>
       </c>
       <c r="P12" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -971,17 +988,20 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>9000</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
@@ -997,8 +1017,8 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1015,37 +1035,40 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E15" s="3">
         <v>2300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>3700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>3300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>100</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>4</v>
@@ -1053,14 +1076,17 @@
       <c r="N15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1074,96 +1100,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E17" s="3">
         <v>26600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>18300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>18900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4700</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1800</v>
       </c>
       <c r="O17" s="3">
         <v>1800</v>
       </c>
       <c r="P17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q17" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E18" s="3">
         <v>1700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>25700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-400</v>
       </c>
       <c r="O18" s="3">
         <v>-400</v>
       </c>
       <c r="P18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1180,23 +1213,24 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>10400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1204,17 +1238,17 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1224,40 +1258,43 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E21" s="3">
         <v>1100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>39700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>5500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-6400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-700</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-400</v>
       </c>
       <c r="N21" s="3">
         <v>-400</v>
@@ -1266,10 +1303,13 @@
         <v>-400</v>
       </c>
       <c r="P21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q21" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1312,64 +1352,70 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>36100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-400</v>
       </c>
       <c r="O23" s="3">
         <v>-400</v>
       </c>
       <c r="P23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>900</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1379,17 +1425,17 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
-      </c>
-      <c r="M24" s="3">
-        <v>-100</v>
       </c>
       <c r="N24" s="3">
         <v>-100</v>
@@ -1398,10 +1444,13 @@
         <v>-100</v>
       </c>
       <c r="P24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1444,96 +1493,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>35800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-300</v>
       </c>
       <c r="O26" s="3">
         <v>-300</v>
       </c>
       <c r="P26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>35800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1576,8 +1634,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1588,40 +1649,43 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
         <v>-100</v>
       </c>
       <c r="H29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I29" s="3">
         <v>-3700</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-7700</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L29" s="3">
         <v>-1600</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1664,8 +1728,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1708,23 +1775,26 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E32" s="3">
         <v>2900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-10400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1732,17 +1802,17 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>1200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -1752,52 +1822,58 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>35800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2200</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-4100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1840,101 +1916,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>35800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2200</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-4100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1951,8 +2036,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1969,73 +2055,77 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E41" s="3">
         <v>28300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2500</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6200</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E42" s="3">
         <v>21000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>29400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>6200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>200</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2051,14 +2141,17 @@
       <c r="N42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2077,32 +2170,35 @@
       <c r="H43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3">
         <v>500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>700</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2145,23 +2241,26 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E45" s="3">
         <v>10400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2100</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
@@ -2169,72 +2268,78 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>700</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>64600</v>
+      </c>
+      <c r="E46" s="3">
         <v>59600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>34500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7600</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2244,8 +2349,8 @@
       <c r="E47" s="3">
         <v>1000</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
+      <c r="F47" s="3">
+        <v>1000</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>4</v>
@@ -2262,8 +2367,8 @@
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2277,37 +2382,40 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E48" s="3">
         <v>36000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>28200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>29800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>17700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4400</v>
       </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
       <c r="J48" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="K48" s="3">
         <v>700</v>
       </c>
       <c r="L48" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="M48" s="3">
         <v>100</v>
@@ -2318,11 +2426,14 @@
       <c r="O48" s="3">
         <v>100</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2365,8 +2476,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2409,8 +2523,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2453,52 +2570,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E52" s="3">
         <v>11500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>14400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1300</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3">
         <v>6900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1300</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2541,52 +2664,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>110400</v>
+      </c>
+      <c r="E54" s="3">
         <v>108100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>78100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>39900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>20600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>14000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9000</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2603,8 +2732,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2621,29 +2751,30 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2500</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1400</v>
       </c>
       <c r="F57" s="3">
         <v>1400</v>
       </c>
       <c r="G57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2656,8 +2787,8 @@
       <c r="M57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
+      <c r="N57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -2665,20 +2796,23 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3">
         <v>1300</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2694,8 +2828,8 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2709,96 +2843,105 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>400</v>
-      </c>
-      <c r="F59" s="3">
-        <v>500</v>
       </c>
       <c r="G59" s="3">
         <v>500</v>
       </c>
       <c r="H59" s="3">
+        <v>500</v>
+      </c>
+      <c r="I59" s="3">
         <v>1100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2400</v>
-      </c>
-      <c r="K59" s="3">
-        <v>400</v>
       </c>
       <c r="L59" s="3">
         <v>400</v>
       </c>
       <c r="M59" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N59" s="3">
         <v>500</v>
       </c>
       <c r="O59" s="3">
+        <v>500</v>
+      </c>
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E60" s="3">
         <v>3200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2400</v>
-      </c>
-      <c r="K60" s="3">
-        <v>400</v>
       </c>
       <c r="L60" s="3">
         <v>400</v>
       </c>
       <c r="M60" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N60" s="3">
         <v>500</v>
       </c>
       <c r="O60" s="3">
+        <v>500</v>
+      </c>
+      <c r="P60" s="3">
         <v>400</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2841,19 +2984,22 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
@@ -2870,8 +3016,8 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -2885,8 +3031,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2929,8 +3078,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2973,8 +3125,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3017,52 +3172,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E66" s="3">
         <v>3200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1300</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3079,8 +3240,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3123,8 +3285,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3167,13 +3332,16 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>9100</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -3211,8 +3379,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3255,52 +3426,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="E72" s="3">
         <v>18700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>20100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-15700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-18400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-17900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-13800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-10800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-200</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3343,8 +3520,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3387,8 +3567,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3431,52 +3614,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>97000</v>
+      </c>
+      <c r="E76" s="3">
         <v>104800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>75000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>38000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>19900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7700</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3519,101 +3708,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>35800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2200</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-4100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3630,37 +3828,38 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E83" s="3">
         <v>2300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3674,8 +3873,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3718,8 +3920,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3762,8 +3967,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3806,8 +4014,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3850,8 +4061,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3894,52 +4108,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2300</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-2500</v>
       </c>
       <c r="F89" s="3">
         <v>-2500</v>
       </c>
       <c r="G89" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="H89" s="3">
         <v>-7700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3956,38 +4176,39 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>6700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-11200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3">
         <v>-800</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
@@ -3998,10 +4219,13 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4044,8 +4268,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4088,38 +4315,41 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>1800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>8600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-10700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-900</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3">
         <v>-3300</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -4130,10 +4360,13 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4150,8 +4383,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4194,8 +4428,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4238,8 +4475,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4282,8 +4522,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4326,52 +4569,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E100" s="3">
         <v>28500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-8300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>6500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>13500</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="3">
         <v>5900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>5700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-400</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4381,8 +4630,8 @@
       <c r="E101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -4397,65 +4646,71 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L101" s="3">
         <v>-100</v>
       </c>
       <c r="M101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N101" s="3">
         <v>300</v>
-      </c>
-      <c r="N101" s="3">
-        <v>100</v>
       </c>
       <c r="O101" s="3">
         <v>100</v>
       </c>
       <c r="P101" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E102" s="3">
         <v>28000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>6700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BTBT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BTBT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
   <si>
     <t>BTBT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,156 +665,162 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E8" s="3">
         <v>10400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>28300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>44000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>20400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>700</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>4500</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>4900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4200</v>
-      </c>
-      <c r="O8" s="3">
-        <v>1400</v>
       </c>
       <c r="P8" s="3">
         <v>1400</v>
       </c>
       <c r="Q8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R8" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E9" s="3">
         <v>2600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>12500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>13400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>700</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
+      <c r="K9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
@@ -831,38 +837,41 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E10" s="3">
         <v>7800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>17400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>31500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1700</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3">
         <v>4500</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
@@ -878,8 +887,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -897,8 +909,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -923,29 +936,32 @@
       <c r="J12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="3">
         <v>400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>200</v>
-      </c>
-      <c r="M12" s="3">
-        <v>300</v>
       </c>
       <c r="N12" s="3">
         <v>300</v>
       </c>
       <c r="O12" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="P12" s="3">
         <v>100</v>
       </c>
       <c r="Q12" s="3">
+        <v>100</v>
+      </c>
+      <c r="R12" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -991,8 +1007,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1000,11 +1019,11 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>9000</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1020,8 +1039,8 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1038,40 +1057,43 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E15" s="3">
         <v>3800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>3700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>3300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>100</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>4</v>
@@ -1079,14 +1101,17 @@
       <c r="O15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1101,102 +1126,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E17" s="3">
         <v>26000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>26600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>18300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>18900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4700</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1800</v>
       </c>
       <c r="P17" s="3">
         <v>1800</v>
       </c>
       <c r="Q17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R17" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-15600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>25700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-400</v>
       </c>
       <c r="P18" s="3">
         <v>-400</v>
       </c>
       <c r="Q18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1214,26 +1246,27 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>10400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>800</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1241,17 +1274,17 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-1200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1261,43 +1294,46 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-15400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>39700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>5500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-6400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-700</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-400</v>
       </c>
       <c r="O21" s="3">
         <v>-400</v>
@@ -1306,10 +1342,13 @@
         <v>-400</v>
       </c>
       <c r="Q21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R21" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1355,70 +1394,76 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-19200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>36100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-400</v>
       </c>
       <c r="P23" s="3">
         <v>-400</v>
       </c>
       <c r="Q23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E24" s="3">
         <v>900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1428,17 +1473,17 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
-      </c>
-      <c r="N24" s="3">
-        <v>-100</v>
       </c>
       <c r="O24" s="3">
         <v>-100</v>
@@ -1447,10 +1492,13 @@
         <v>-100</v>
       </c>
       <c r="Q24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1496,102 +1544,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-20100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>35800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-300</v>
       </c>
       <c r="P26" s="3">
         <v>-300</v>
       </c>
       <c r="Q26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-20100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>35800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1637,8 +1694,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1652,40 +1712,43 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
         <v>-100</v>
       </c>
       <c r="I29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J29" s="3">
         <v>-3700</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-7700</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M29" s="3">
         <v>-1600</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1731,8 +1794,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1778,26 +1844,29 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E32" s="3">
         <v>3700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-10400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-800</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1805,17 +1874,17 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>1200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -1825,55 +1894,61 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-20100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>35800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2200</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-4100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-9500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1919,107 +1994,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-20100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>35800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2200</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-4100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-9500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2037,8 +2121,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2056,79 +2141,83 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>42400</v>
+      </c>
+      <c r="E41" s="3">
         <v>26500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>28300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2500</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6200</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>51100</v>
+      </c>
+      <c r="E42" s="3">
         <v>35000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>21000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>29400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>6200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>200</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2144,14 +2233,17 @@
       <c r="O42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2173,32 +2265,35 @@
       <c r="I43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43" s="3">
         <v>500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>700</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2244,8 +2339,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2253,17 +2351,17 @@
         <v>3100</v>
       </c>
       <c r="E45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F45" s="3">
         <v>10400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2100</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
@@ -2271,75 +2369,81 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>700</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>96600</v>
+      </c>
+      <c r="E46" s="3">
         <v>64600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>59600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>34500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>12100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7600</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2352,8 +2456,8 @@
       <c r="F47" s="3">
         <v>1000</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
+      <c r="G47" s="3">
+        <v>1000</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>4</v>
@@ -2370,8 +2474,8 @@
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2385,40 +2489,43 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E48" s="3">
         <v>30000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>36000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>28200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>29800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>17700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4400</v>
       </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
       <c r="K48" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="L48" s="3">
         <v>700</v>
       </c>
       <c r="M48" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="N48" s="3">
         <v>100</v>
@@ -2429,11 +2536,14 @@
       <c r="P48" s="3">
         <v>100</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>100</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2479,8 +2589,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2526,8 +2639,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2573,55 +2689,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>49900</v>
+      </c>
+      <c r="E52" s="3">
         <v>14800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>11500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>14400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1300</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3">
         <v>6900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1300</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2667,55 +2789,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>179900</v>
+      </c>
+      <c r="E54" s="3">
         <v>110400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>108100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>78100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>39900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>20600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>14000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>13000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9000</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2733,8 +2861,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2752,32 +2881,33 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E57" s="3">
         <v>3000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2500</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1400</v>
       </c>
       <c r="G57" s="3">
         <v>1400</v>
       </c>
       <c r="H57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2790,8 +2920,8 @@
       <c r="N57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
+      <c r="O57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -2799,8 +2929,11 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2810,12 +2943,12 @@
       <c r="E58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3">
         <v>1300</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2831,8 +2964,8 @@
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -2846,102 +2979,111 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>400</v>
-      </c>
-      <c r="G59" s="3">
-        <v>500</v>
       </c>
       <c r="H59" s="3">
         <v>500</v>
       </c>
       <c r="I59" s="3">
+        <v>500</v>
+      </c>
+      <c r="J59" s="3">
         <v>1100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2400</v>
-      </c>
-      <c r="L59" s="3">
-        <v>400</v>
       </c>
       <c r="M59" s="3">
         <v>400</v>
       </c>
       <c r="N59" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O59" s="3">
         <v>500</v>
       </c>
       <c r="P59" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2400</v>
-      </c>
-      <c r="L60" s="3">
-        <v>400</v>
       </c>
       <c r="M60" s="3">
         <v>400</v>
       </c>
       <c r="N60" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O60" s="3">
         <v>500</v>
       </c>
       <c r="P60" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q60" s="3">
         <v>400</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2987,22 +3129,25 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E62" s="3">
         <v>700</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
       <c r="F62" s="3">
         <v>0</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
+      <c r="G62" s="3">
+        <v>0</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
@@ -3019,8 +3164,8 @@
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3034,8 +3179,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3081,8 +3229,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3128,8 +3279,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3175,55 +3329,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E66" s="3">
         <v>4400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1300</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3241,8 +3401,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3288,8 +3449,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3335,8 +3499,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3344,7 +3511,7 @@
         <v>9100</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>9100</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -3382,8 +3549,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3429,55 +3599,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-10400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>18700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>20100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-15700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-18400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-17900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-13800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-200</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3523,8 +3699,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3570,8 +3749,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3617,55 +3799,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>162600</v>
+      </c>
+      <c r="E76" s="3">
         <v>97000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>104800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>75000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>38000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>19900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7700</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3711,107 +3899,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-20100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>35800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2200</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-4100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-9500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3829,40 +4026,41 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E83" s="3">
         <v>3800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -3876,8 +4074,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3923,8 +4124,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3970,8 +4174,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4017,8 +4224,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4064,8 +4274,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4111,55 +4324,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-6400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2300</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-2500</v>
       </c>
       <c r="G89" s="3">
         <v>-2500</v>
       </c>
       <c r="H89" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="I89" s="3">
         <v>-7700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4177,41 +4396,42 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>6700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-11200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3">
         <v>-800</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
@@ -4222,10 +4442,13 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4271,8 +4494,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4318,41 +4544,44 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-43700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>8600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-10700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-900</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3">
         <v>-3300</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -4363,10 +4592,13 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4384,8 +4616,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4431,8 +4664,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4478,8 +4714,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4525,8 +4764,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4572,55 +4814,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>71700</v>
+      </c>
+      <c r="E100" s="3">
         <v>4700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>28500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-8300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>6500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>13500</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3">
         <v>5900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>5700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-400</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4633,8 +4881,8 @@
       <c r="F101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
+      <c r="G101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -4649,68 +4897,74 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M101" s="3">
         <v>-100</v>
       </c>
       <c r="N101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O101" s="3">
         <v>300</v>
-      </c>
-      <c r="O101" s="3">
-        <v>100</v>
       </c>
       <c r="P101" s="3">
         <v>100</v>
       </c>
       <c r="Q101" s="3">
+        <v>100</v>
+      </c>
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>28000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>6700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BTBT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BTBT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
   <si>
     <t>BTBT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,172 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E8" s="3">
         <v>13400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>28300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>44000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>20400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>700</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>4500</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>4900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4200</v>
-      </c>
-      <c r="P8" s="3">
-        <v>1400</v>
       </c>
       <c r="Q8" s="3">
         <v>1400</v>
       </c>
       <c r="R8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S8" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E9" s="3">
         <v>4800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>12500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>13400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>700</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
@@ -840,41 +847,44 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E10" s="3">
         <v>8600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>17400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>31500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>7000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1700</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3">
         <v>4500</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
@@ -890,8 +900,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -910,8 +923,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -939,29 +953,32 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3">
         <v>400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>200</v>
-      </c>
-      <c r="N12" s="3">
-        <v>300</v>
       </c>
       <c r="O12" s="3">
         <v>300</v>
       </c>
       <c r="P12" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Q12" s="3">
         <v>100</v>
       </c>
       <c r="R12" s="3">
+        <v>100</v>
+      </c>
+      <c r="S12" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1010,23 +1027,26 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>9000</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1042,8 +1062,8 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1060,43 +1080,46 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E15" s="3">
         <v>3300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>3800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>3700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>3300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>100</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>4</v>
@@ -1104,14 +1127,17 @@
       <c r="P15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1127,108 +1153,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E17" s="3">
         <v>21100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>26000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>26600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>18300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>18900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4700</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1800</v>
       </c>
       <c r="Q17" s="3">
         <v>1800</v>
       </c>
       <c r="R17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S17" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-7700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-15600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>25700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-400</v>
       </c>
       <c r="Q18" s="3">
         <v>-400</v>
       </c>
       <c r="R18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1247,29 +1280,30 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E20" s="3">
         <v>800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>10400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>800</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1277,17 +1311,17 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-1200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1297,46 +1331,49 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-15400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>39700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>5500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-6400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-700</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-400</v>
       </c>
       <c r="P21" s="3">
         <v>-400</v>
@@ -1345,10 +1382,13 @@
         <v>-400</v>
       </c>
       <c r="R21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S21" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1397,76 +1437,82 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-19200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>36100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-400</v>
       </c>
       <c r="Q23" s="3">
         <v>-400</v>
       </c>
       <c r="R23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E24" s="3">
         <v>2500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1476,17 +1522,17 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
-      </c>
-      <c r="O24" s="3">
-        <v>-100</v>
       </c>
       <c r="P24" s="3">
         <v>-100</v>
@@ -1495,10 +1541,13 @@
         <v>-100</v>
       </c>
       <c r="R24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1547,108 +1596,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-9400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-20100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>35800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-300</v>
       </c>
       <c r="Q26" s="3">
         <v>-300</v>
       </c>
       <c r="R26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-9400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-20100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>35800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1697,13 +1755,16 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1715,40 +1776,43 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
         <v>-100</v>
       </c>
       <c r="J29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K29" s="3">
         <v>-3700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-7700</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N29" s="3">
         <v>-1600</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1797,8 +1861,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1847,29 +1914,32 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-10400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-800</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1877,17 +1947,17 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>1200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -1897,58 +1967,64 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-9400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-20100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>35800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2200</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-4100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1997,113 +2073,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-9400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-20100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>35800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2200</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-4100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2122,8 +2207,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2142,85 +2228,89 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E41" s="3">
         <v>42400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>26500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>28300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2500</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6200</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>43900</v>
+      </c>
+      <c r="E42" s="3">
         <v>51100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>35000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>21000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>29400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>6200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>200</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2236,64 +2326,70 @@
       <c r="P42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" s="3">
         <v>500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>700</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2342,29 +2438,32 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3100</v>
+        <v>6300</v>
       </c>
       <c r="E45" s="3">
         <v>3100</v>
       </c>
       <c r="F45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G45" s="3">
         <v>10400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2100</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
@@ -2372,83 +2471,89 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>700</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>78300</v>
+      </c>
+      <c r="E46" s="3">
         <v>96600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>64600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>59600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>34500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>12100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7600</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="E47" s="3">
         <v>1000</v>
@@ -2459,8 +2564,8 @@
       <c r="G47" s="3">
         <v>1000</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
+      <c r="H47" s="3">
+        <v>1000</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>4</v>
@@ -2477,8 +2582,8 @@
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2492,43 +2597,46 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E48" s="3">
         <v>32500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>30000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>36000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>28200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>29800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>17700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4400</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
       <c r="L48" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="M48" s="3">
         <v>700</v>
       </c>
       <c r="N48" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="O48" s="3">
         <v>100</v>
@@ -2539,11 +2647,14 @@
       <c r="Q48" s="3">
         <v>100</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>100</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2592,8 +2703,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2642,8 +2756,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2692,58 +2809,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>62300</v>
+      </c>
+      <c r="E52" s="3">
         <v>49900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>14800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>11500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>14400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1300</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K52" s="3">
         <v>6900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1300</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2792,58 +2915,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>169600</v>
+      </c>
+      <c r="E54" s="3">
         <v>179900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>110400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>108100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>78100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>39900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>20600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>14000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>15300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>13000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9000</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2862,8 +2991,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2882,35 +3012,36 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E57" s="3">
         <v>2600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2500</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1400</v>
       </c>
       <c r="H57" s="3">
         <v>1400</v>
       </c>
       <c r="I57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2923,8 +3054,8 @@
       <c r="O57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
+      <c r="P57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
@@ -2932,8 +3063,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2946,12 +3080,12 @@
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3">
         <v>1300</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2967,8 +3101,8 @@
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -2982,108 +3116,117 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E59" s="3">
         <v>2400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>400</v>
-      </c>
-      <c r="H59" s="3">
-        <v>500</v>
       </c>
       <c r="I59" s="3">
         <v>500</v>
       </c>
       <c r="J59" s="3">
+        <v>500</v>
+      </c>
+      <c r="K59" s="3">
         <v>1100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2400</v>
-      </c>
-      <c r="M59" s="3">
-        <v>400</v>
       </c>
       <c r="N59" s="3">
         <v>400</v>
       </c>
       <c r="O59" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="P59" s="3">
         <v>500</v>
       </c>
       <c r="Q59" s="3">
+        <v>500</v>
+      </c>
+      <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E60" s="3">
         <v>5000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2400</v>
-      </c>
-      <c r="M60" s="3">
-        <v>400</v>
       </c>
       <c r="N60" s="3">
         <v>400</v>
       </c>
       <c r="O60" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="P60" s="3">
         <v>500</v>
       </c>
       <c r="Q60" s="3">
+        <v>500</v>
+      </c>
+      <c r="R60" s="3">
         <v>400</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3132,25 +3275,28 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E62" s="3">
         <v>3200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>700</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
       <c r="G62" s="3">
         <v>0</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
@@ -3167,8 +3313,8 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3182,8 +3328,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3232,8 +3381,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3282,8 +3434,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3332,58 +3487,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E66" s="3">
         <v>8300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1300</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3402,8 +3563,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3452,8 +3614,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3502,8 +3667,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3514,7 +3682,7 @@
         <v>9100</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>9100</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -3552,8 +3720,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3602,58 +3773,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-19900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-10400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>18700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>20100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-15700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-18400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-17900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-13800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-10800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-200</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3702,8 +3879,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3752,8 +3932,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3802,58 +3985,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>152800</v>
+      </c>
+      <c r="E76" s="3">
         <v>162600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>97000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>104800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>75000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>38000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>19900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7700</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3902,113 +4091,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-9400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-20100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>35800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2200</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-4100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4027,43 +4225,44 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E83" s="3">
         <v>3300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M83" s="3">
         <v>100</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -4077,8 +4276,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4127,8 +4329,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4177,8 +4382,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4227,8 +4435,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4277,8 +4488,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4327,58 +4541,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-12100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-6400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2300</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-2500</v>
       </c>
       <c r="H89" s="3">
         <v>-2500</v>
       </c>
       <c r="I89" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="J89" s="3">
         <v>-7700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4397,44 +4617,45 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>6700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-11200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3">
         <v>-800</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
@@ -4445,10 +4666,13 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4497,8 +4721,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4547,44 +4774,47 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-43700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>1100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>8600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-10700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-900</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3">
         <v>-3300</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -4595,10 +4825,13 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4617,8 +4850,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4667,8 +4901,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4717,8 +4954,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4767,8 +5007,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4817,72 +5060,78 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E100" s="3">
         <v>71700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>4700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>28500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-8300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>6500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>13500</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3">
         <v>5900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>5700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-400</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -4900,71 +5149,77 @@
         <v>0</v>
       </c>
       <c r="M101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N101" s="3">
         <v>-100</v>
       </c>
       <c r="O101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P101" s="3">
         <v>300</v>
-      </c>
-      <c r="P101" s="3">
-        <v>100</v>
       </c>
       <c r="Q101" s="3">
         <v>100</v>
       </c>
       <c r="R101" s="3">
+        <v>100</v>
+      </c>
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E102" s="3">
         <v>15900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>28000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>6700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BTBT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BTBT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
   <si>
     <t>BTBT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,175 +665,182 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E8" s="3">
         <v>8600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>13400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>28300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>44000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>20400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>700</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>4500</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>4900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4200</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>1400</v>
       </c>
       <c r="R8" s="3">
         <v>1400</v>
       </c>
       <c r="S8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T8" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E9" s="3">
         <v>4300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>10900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>12500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>13400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>700</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
@@ -850,44 +857,47 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E10" s="3">
         <v>4300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>8600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>17400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>31500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1700</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3">
         <v>4500</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
@@ -903,8 +913,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -924,8 +937,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -956,29 +970,32 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3">
         <v>400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>200</v>
-      </c>
-      <c r="O12" s="3">
-        <v>300</v>
       </c>
       <c r="P12" s="3">
         <v>300</v>
       </c>
       <c r="Q12" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="R12" s="3">
         <v>100</v>
       </c>
       <c r="S12" s="3">
+        <v>100</v>
+      </c>
+      <c r="T12" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1030,26 +1047,29 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E14" s="3">
         <v>10000</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>9000</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1065,8 +1085,8 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1083,46 +1103,49 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E15" s="3">
         <v>3800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>3300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>3800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>3700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>3300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>100</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>4</v>
@@ -1130,14 +1153,17 @@
       <c r="Q15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1154,114 +1180,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E17" s="3">
         <v>22400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>21100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>26000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>26600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>18300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>18900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4700</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1800</v>
       </c>
       <c r="R17" s="3">
         <v>1800</v>
       </c>
       <c r="S17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="T17" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-13800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-7700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-15600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>25700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-400</v>
       </c>
       <c r="R18" s="3">
         <v>-400</v>
       </c>
       <c r="S18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1281,32 +1314,33 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E20" s="3">
         <v>2300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>10400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>800</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1314,17 +1348,17 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-1200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1334,49 +1368,52 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-7700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-15400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>39700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>5500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-6400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-700</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-400</v>
       </c>
       <c r="Q21" s="3">
         <v>-400</v>
@@ -1385,10 +1422,13 @@
         <v>-400</v>
       </c>
       <c r="S21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T21" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1440,82 +1480,88 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-11500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-19200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>36100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-400</v>
       </c>
       <c r="R23" s="3">
         <v>-400</v>
       </c>
       <c r="S23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1525,17 +1571,17 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
-      </c>
-      <c r="P24" s="3">
-        <v>-100</v>
       </c>
       <c r="Q24" s="3">
         <v>-100</v>
@@ -1544,10 +1590,13 @@
         <v>-100</v>
       </c>
       <c r="S24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1599,114 +1648,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-10200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-9400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-20100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>35800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-300</v>
       </c>
       <c r="R26" s="3">
         <v>-300</v>
       </c>
       <c r="S26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-10200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-9400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-20100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>35800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1758,16 +1816,19 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1779,40 +1840,43 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
         <v>-100</v>
       </c>
       <c r="K29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L29" s="3">
         <v>-3700</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-7700</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29" s="3">
         <v>-1600</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1864,8 +1928,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1917,32 +1984,35 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-10400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-800</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1950,17 +2020,17 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>1200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -1970,61 +2040,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-10200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-9400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-20100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>35800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2200</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-4100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2076,119 +2152,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-10200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-9400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-20100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>35800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2200</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-4100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2208,8 +2293,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2229,91 +2315,95 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>44300</v>
+      </c>
+      <c r="E41" s="3">
         <v>28100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>42400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>26500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>28300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2500</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6200</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E42" s="3">
         <v>43900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>51100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>35000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>21000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>29400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>6200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>200</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2329,67 +2419,73 @@
       <c r="Q42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3">
         <v>500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>700</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2441,32 +2537,35 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E45" s="3">
         <v>6300</v>
-      </c>
-      <c r="E45" s="3">
-        <v>3100</v>
       </c>
       <c r="F45" s="3">
         <v>3100</v>
       </c>
       <c r="G45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H45" s="3">
         <v>10400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2100</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
@@ -2474,81 +2573,87 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>700</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>78400</v>
+      </c>
+      <c r="E46" s="3">
         <v>78300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>96600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>64600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>59600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>34500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>12100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7600</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2556,7 +2661,7 @@
         <v>300</v>
       </c>
       <c r="E47" s="3">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="F47" s="3">
         <v>1000</v>
@@ -2567,8 +2672,8 @@
       <c r="H47" s="3">
         <v>1000</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
+      <c r="I47" s="3">
+        <v>1000</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>4</v>
@@ -2585,8 +2690,8 @@
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2600,46 +2705,49 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E48" s="3">
         <v>28700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>32500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>30000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>36000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>28200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>29800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>17700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4400</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
       <c r="M48" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="N48" s="3">
         <v>700</v>
       </c>
       <c r="O48" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="P48" s="3">
         <v>100</v>
@@ -2650,11 +2758,14 @@
       <c r="R48" s="3">
         <v>100</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>100</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2706,8 +2817,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2759,8 +2873,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2812,61 +2929,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E52" s="3">
         <v>62300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>49900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>14800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>11500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>14400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1300</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3">
         <v>6900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1300</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2918,61 +3041,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>179000</v>
+      </c>
+      <c r="E54" s="3">
         <v>169600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>179900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>110400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>108100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>78100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>39900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>20600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>15300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>13000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9000</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2992,8 +3121,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3013,38 +3143,39 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E57" s="3">
         <v>3500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2500</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1400</v>
       </c>
       <c r="I57" s="3">
         <v>1400</v>
       </c>
       <c r="J57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3057,8 +3188,8 @@
       <c r="P57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
@@ -3066,8 +3197,11 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3083,12 +3217,12 @@
       <c r="G58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3">
         <v>1300</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3104,8 +3238,8 @@
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3119,114 +3253,123 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E59" s="3">
         <v>1300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>400</v>
-      </c>
-      <c r="I59" s="3">
-        <v>500</v>
       </c>
       <c r="J59" s="3">
         <v>500</v>
       </c>
       <c r="K59" s="3">
+        <v>500</v>
+      </c>
+      <c r="L59" s="3">
         <v>1100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2400</v>
-      </c>
-      <c r="N59" s="3">
-        <v>400</v>
       </c>
       <c r="O59" s="3">
         <v>400</v>
       </c>
       <c r="P59" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q59" s="3">
         <v>500</v>
       </c>
       <c r="R59" s="3">
+        <v>500</v>
+      </c>
+      <c r="S59" s="3">
         <v>400</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E60" s="3">
         <v>4900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2400</v>
-      </c>
-      <c r="N60" s="3">
-        <v>400</v>
       </c>
       <c r="O60" s="3">
         <v>400</v>
       </c>
       <c r="P60" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q60" s="3">
         <v>500</v>
       </c>
       <c r="R60" s="3">
+        <v>500</v>
+      </c>
+      <c r="S60" s="3">
         <v>400</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3278,28 +3421,31 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E62" s="3">
         <v>2800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>700</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
       <c r="H62" s="3">
         <v>0</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -3316,8 +3462,8 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3331,8 +3477,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3384,8 +3533,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3437,8 +3589,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3490,61 +3645,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E66" s="3">
         <v>7700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1300</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3564,8 +3725,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3617,8 +3779,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3670,8 +3835,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3685,7 +3853,7 @@
         <v>9100</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>9100</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -3723,8 +3891,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3776,61 +3947,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-48200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-30100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-19900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-10400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>18700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>20100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-15700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-18400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-17900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-10800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-200</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3882,8 +4059,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3935,8 +4115,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3988,61 +4171,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>162900</v>
+      </c>
+      <c r="E76" s="3">
         <v>152800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>162600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>97000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>104800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>75000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>38000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>19900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7700</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4094,119 +4283,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-10200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-9400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-20100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>35800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2200</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-4100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4226,46 +4424,47 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E83" s="3">
         <v>3800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
       <c r="M83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N83" s="3">
         <v>100</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -4279,8 +4478,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4332,8 +4534,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4385,8 +4590,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4438,8 +4646,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4491,8 +4702,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4544,61 +4758,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-6700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-12100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2300</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-2500</v>
       </c>
       <c r="I89" s="3">
         <v>-2500</v>
       </c>
       <c r="J89" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K89" s="3">
         <v>-7700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4618,47 +4838,48 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-11100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>6700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-11200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3">
         <v>-800</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
@@ -4669,10 +4890,13 @@
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4724,8 +4948,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4777,47 +5004,50 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-43700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>1800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>8600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-10700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-900</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3">
         <v>-3300</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -4828,10 +5058,13 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4851,8 +5084,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4904,8 +5138,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4957,8 +5194,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5010,8 +5250,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5063,61 +5306,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>71700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>4700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>28500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-8300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>6500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>13500</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3">
         <v>5900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>5700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-400</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5152,74 +5401,80 @@
         <v>0</v>
       </c>
       <c r="N101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O101" s="3">
         <v>-100</v>
       </c>
       <c r="P101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q101" s="3">
         <v>300</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>100</v>
       </c>
       <c r="R101" s="3">
         <v>100</v>
       </c>
       <c r="S101" s="3">
+        <v>100</v>
+      </c>
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-13000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>15900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>28000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>5100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>6700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BTBT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BTBT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>BTBT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,185 +665,192 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E8" s="3">
         <v>6800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>28300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>44000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>20400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>700</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>4500</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>4900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4200</v>
-      </c>
-      <c r="R8" s="3">
-        <v>1400</v>
       </c>
       <c r="S8" s="3">
         <v>1400</v>
       </c>
       <c r="T8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="U8" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E9" s="3">
         <v>3600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>10900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>12500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>13400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>700</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
@@ -860,47 +867,50 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E10" s="3">
         <v>3200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>8600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>17400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>31500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1700</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3">
         <v>4500</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
@@ -916,8 +926,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -938,8 +951,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -973,29 +987,32 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3">
         <v>400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>200</v>
-      </c>
-      <c r="P12" s="3">
-        <v>300</v>
       </c>
       <c r="Q12" s="3">
         <v>300</v>
       </c>
       <c r="R12" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S12" s="3">
         <v>100</v>
       </c>
       <c r="T12" s="3">
+        <v>100</v>
+      </c>
+      <c r="U12" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1050,29 +1067,32 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E14" s="3">
         <v>13600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>10000</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>9000</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1088,8 +1108,8 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1106,49 +1126,52 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E15" s="3">
         <v>5300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>3800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>3300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>3800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>3700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>100</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>4</v>
@@ -1156,14 +1179,17 @@
       <c r="R15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1181,120 +1207,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E17" s="3">
         <v>27100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>22400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>21100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>26000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>26600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>18300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>18900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4700</v>
-      </c>
-      <c r="R17" s="3">
-        <v>1800</v>
       </c>
       <c r="S17" s="3">
         <v>1800</v>
       </c>
       <c r="T17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="U17" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-20300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-13800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-15600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>25700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-400</v>
       </c>
       <c r="S18" s="3">
         <v>-400</v>
       </c>
       <c r="T18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1315,35 +1348,36 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>3400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>10400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1351,17 +1385,17 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-1200</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1371,52 +1405,55 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-11600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-7700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-15400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>39700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>5500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-6400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-400</v>
       </c>
       <c r="R21" s="3">
         <v>-400</v>
@@ -1425,10 +1462,13 @@
         <v>-400</v>
       </c>
       <c r="T21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U21" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1483,88 +1523,94 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-17000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-11500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-19200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>36100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-400</v>
       </c>
       <c r="S23" s="3">
         <v>-400</v>
       </c>
       <c r="T23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>1200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1574,17 +1620,17 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>-100</v>
       </c>
       <c r="R24" s="3">
         <v>-100</v>
@@ -1593,10 +1639,13 @@
         <v>-100</v>
       </c>
       <c r="T24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1651,120 +1700,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-18100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-10200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-9400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-20100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>35800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-6500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-300</v>
       </c>
       <c r="S26" s="3">
         <v>-300</v>
       </c>
       <c r="T26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-18100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-10200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-9400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-20100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>35800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1819,8 +1877,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1830,8 +1891,8 @@
       <c r="E29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1843,40 +1904,43 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K29" s="3">
         <v>-100</v>
       </c>
       <c r="L29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M29" s="3">
         <v>-3700</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-7700</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P29" s="3">
         <v>-1600</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1931,8 +1995,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1987,35 +2054,38 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-10400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2023,17 +2093,17 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>1200</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2043,64 +2113,70 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-18100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-10200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-9400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-20100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>35800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2200</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-4100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-6500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2155,125 +2231,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-18100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-10200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-9400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-20100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>35800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2200</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-4100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-6500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2294,8 +2379,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2316,97 +2402,101 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>32300</v>
+      </c>
+      <c r="E41" s="3">
         <v>44300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>28100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>42400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>26500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>28300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2500</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6200</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E42" s="3">
         <v>26900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>43900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>51100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>35000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>21000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>29400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>6200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>200</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2422,23 +2512,26 @@
       <c r="R42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
+      <c r="S42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2454,38 +2547,41 @@
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="K43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" s="3">
         <v>500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>700</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2540,35 +2636,38 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E45" s="3">
         <v>7000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6300</v>
-      </c>
-      <c r="F45" s="3">
-        <v>3100</v>
       </c>
       <c r="G45" s="3">
         <v>3100</v>
       </c>
       <c r="H45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I45" s="3">
         <v>10400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2100</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
@@ -2576,95 +2675,101 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>700</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>68400</v>
+      </c>
+      <c r="E46" s="3">
         <v>78400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>78300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>96600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>64600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>59600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>34500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>12100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7600</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>300</v>
+        <v>2400</v>
       </c>
       <c r="E47" s="3">
         <v>300</v>
       </c>
       <c r="F47" s="3">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="G47" s="3">
         <v>1000</v>
@@ -2675,8 +2780,8 @@
       <c r="I47" s="3">
         <v>1000</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
+      <c r="J47" s="3">
+        <v>1000</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>4</v>
@@ -2693,8 +2798,8 @@
       <c r="O47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -2708,49 +2813,52 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>80700</v>
+      </c>
+      <c r="E48" s="3">
         <v>90000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>28700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>32500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>30000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>36000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>28200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>29800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>17700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4400</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
       <c r="N48" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="O48" s="3">
         <v>700</v>
       </c>
       <c r="P48" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="Q48" s="3">
         <v>100</v>
@@ -2761,11 +2869,14 @@
       <c r="S48" s="3">
         <v>100</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>100</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2820,8 +2931,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2876,8 +2990,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2932,64 +3049,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E52" s="3">
         <v>10200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>62300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>49900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>14800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>11500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>14400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1300</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3">
         <v>6900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1300</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3044,64 +3167,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>164700</v>
+      </c>
+      <c r="E54" s="3">
         <v>179000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>169600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>179900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>110400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>108100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>78100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>39900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>20600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>15300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>13000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9000</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3122,8 +3251,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3144,41 +3274,42 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E57" s="3">
         <v>1900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2500</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1400</v>
       </c>
       <c r="J57" s="3">
         <v>1400</v>
       </c>
       <c r="K57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3191,8 +3322,8 @@
       <c r="Q57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
+      <c r="R57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
@@ -3200,8 +3331,11 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3220,12 +3354,12 @@
       <c r="H58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3">
         <v>1300</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3241,8 +3375,8 @@
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3256,120 +3390,129 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E59" s="3">
         <v>2200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
-      </c>
-      <c r="J59" s="3">
-        <v>500</v>
       </c>
       <c r="K59" s="3">
         <v>500</v>
       </c>
       <c r="L59" s="3">
+        <v>500</v>
+      </c>
+      <c r="M59" s="3">
         <v>1100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2400</v>
-      </c>
-      <c r="O59" s="3">
-        <v>400</v>
       </c>
       <c r="P59" s="3">
         <v>400</v>
       </c>
       <c r="Q59" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="R59" s="3">
         <v>500</v>
       </c>
       <c r="S59" s="3">
+        <v>500</v>
+      </c>
+      <c r="T59" s="3">
         <v>400</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E60" s="3">
         <v>4100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2400</v>
-      </c>
-      <c r="O60" s="3">
-        <v>400</v>
       </c>
       <c r="P60" s="3">
         <v>400</v>
       </c>
       <c r="Q60" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="R60" s="3">
         <v>500</v>
       </c>
       <c r="S60" s="3">
+        <v>500</v>
+      </c>
+      <c r="T60" s="3">
         <v>400</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3424,31 +3567,34 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>700</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
       <c r="I62" s="3">
         <v>0</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
@@ -3465,8 +3611,8 @@
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3480,8 +3626,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3536,8 +3685,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3592,8 +3744,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3648,64 +3803,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E66" s="3">
         <v>7000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1300</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3726,8 +3887,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3782,8 +3944,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3838,8 +4003,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3856,7 +4024,7 @@
         <v>9100</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>9100</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -3894,8 +4062,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3950,64 +4121,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-62500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-48200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-30100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-19900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-10400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>18700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>20100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-15700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-18400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-17900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-13800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-10800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-200</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4062,8 +4239,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4118,8 +4298,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4174,64 +4357,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>149200</v>
+      </c>
+      <c r="E76" s="3">
         <v>162900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>152800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>162600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>97000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>104800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>75000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>38000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>19900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>11600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7700</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4286,125 +4475,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-18100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-10200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-9400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-20100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>35800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2200</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-4100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-6500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4425,49 +4623,50 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E83" s="3">
         <v>5300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
       <c r="N83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O83" s="3">
         <v>100</v>
       </c>
       <c r="P83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4481,8 +4680,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4537,8 +4739,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4593,8 +4798,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4649,8 +4857,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4705,8 +4916,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4761,64 +4975,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-8600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-6700</v>
       </c>
-      <c r="F89" s="3">
-        <v>-12100</v>
-      </c>
       <c r="G89" s="3">
-        <v>-6400</v>
+        <v>-15600</v>
       </c>
       <c r="H89" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="I89" s="3">
         <v>-2300</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-2500</v>
       </c>
       <c r="J89" s="3">
         <v>-2500</v>
       </c>
       <c r="K89" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="L89" s="3">
         <v>-7700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4839,50 +5059,51 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-11100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>6700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3">
         <v>-800</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
@@ -4893,10 +5114,13 @@
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4951,8 +5175,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5007,50 +5234,53 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="E94" s="3">
         <v>3800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-43700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>8600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-10700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-900</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3">
         <v>-3300</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
@@ -5061,10 +5291,13 @@
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5085,8 +5318,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5141,8 +5375,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5197,8 +5434,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5253,8 +5493,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5309,64 +5552,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>21000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>71700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>28500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-8300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>6500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>13500</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P100" s="3">
         <v>5900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>5700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-400</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5404,77 +5653,83 @@
         <v>0</v>
       </c>
       <c r="O101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P101" s="3">
         <v>-100</v>
       </c>
       <c r="Q101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R101" s="3">
         <v>300</v>
-      </c>
-      <c r="R101" s="3">
-        <v>100</v>
       </c>
       <c r="S101" s="3">
         <v>100</v>
       </c>
       <c r="T101" s="3">
+        <v>100</v>
+      </c>
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E102" s="3">
         <v>16200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-13000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>15900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>28000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>5100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>6700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BTBT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BTBT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
   <si>
     <t>BTBT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,195 +665,201 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E8" s="3">
         <v>9100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>13400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>28300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>44000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>700</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>4500</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>4900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4200</v>
-      </c>
-      <c r="S8" s="3">
-        <v>1400</v>
       </c>
       <c r="T8" s="3">
         <v>1400</v>
       </c>
       <c r="U8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V8" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E9" s="3">
         <v>6500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>12500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>13400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>700</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>4</v>
@@ -870,50 +876,53 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E10" s="3">
         <v>2600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>8600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>7800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>17400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>31500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1700</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3">
         <v>4500</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
@@ -929,8 +938,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -952,8 +964,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -990,29 +1003,32 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3">
         <v>400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>200</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>300</v>
       </c>
       <c r="R12" s="3">
         <v>300</v>
       </c>
       <c r="S12" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="T12" s="3">
         <v>100</v>
       </c>
       <c r="U12" s="3">
+        <v>100</v>
+      </c>
+      <c r="V12" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1070,32 +1086,35 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E14" s="3">
         <v>2400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>13600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>10000</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>18900</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>9000</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1111,8 +1130,8 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1129,52 +1148,55 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E15" s="3">
         <v>9300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>5300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>3800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>3300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>3800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>2300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>100</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>4</v>
@@ -1182,14 +1204,17 @@
       <c r="S15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
+      <c r="T15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1208,126 +1233,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>70300</v>
+      </c>
+      <c r="E17" s="3">
         <v>23400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>27100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>22400</v>
       </c>
-      <c r="G17" s="3">
-        <v>21100</v>
-      </c>
       <c r="H17" s="3">
+        <v>19300</v>
+      </c>
+      <c r="I17" s="3">
         <v>26000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>26600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>18300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4700</v>
-      </c>
-      <c r="S17" s="3">
-        <v>1800</v>
       </c>
       <c r="T17" s="3">
         <v>1800</v>
       </c>
       <c r="U17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="V17" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-62500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-14300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-20300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-13800</v>
       </c>
-      <c r="G18" s="3">
-        <v>-7700</v>
-      </c>
       <c r="H18" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="I18" s="3">
         <v>-15600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>25700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-500</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-400</v>
       </c>
       <c r="T18" s="3">
         <v>-400</v>
       </c>
       <c r="U18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1349,38 +1381,39 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="K20" s="3">
+        <v>10400</v>
+      </c>
+      <c r="L20" s="3">
         <v>800</v>
       </c>
-      <c r="H20" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="J20" s="3">
-        <v>10400</v>
-      </c>
-      <c r="K20" s="3">
-        <v>800</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1388,17 +1421,17 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-1200</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1408,55 +1441,58 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-53900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-4800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-11600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7700</v>
       </c>
-      <c r="G21" s="3">
-        <v>-3600</v>
-      </c>
       <c r="H21" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="I21" s="3">
         <v>-15400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>39700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-6400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-700</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-400</v>
       </c>
       <c r="S21" s="3">
         <v>-400</v>
@@ -1465,10 +1501,13 @@
         <v>-400</v>
       </c>
       <c r="U21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V21" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1526,94 +1565,100 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-63300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-14100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-17000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-11500</v>
       </c>
-      <c r="G23" s="3">
-        <v>-6900</v>
-      </c>
       <c r="H23" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="I23" s="3">
         <v>-19200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>36100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-400</v>
       </c>
       <c r="T23" s="3">
         <v>-400</v>
       </c>
       <c r="U23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1623,17 +1668,17 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>100</v>
-      </c>
-      <c r="R24" s="3">
-        <v>-100</v>
       </c>
       <c r="S24" s="3">
         <v>-100</v>
@@ -1642,10 +1687,13 @@
         <v>-100</v>
       </c>
       <c r="U24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1703,126 +1751,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-62700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-14300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-18100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-10200</v>
       </c>
-      <c r="G26" s="3">
-        <v>-9400</v>
-      </c>
       <c r="H26" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="I26" s="3">
         <v>-20100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>35800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-300</v>
       </c>
       <c r="T26" s="3">
         <v>-300</v>
       </c>
       <c r="U26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-62700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-14300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-18100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-10200</v>
       </c>
-      <c r="G27" s="3">
-        <v>-9400</v>
-      </c>
       <c r="H27" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="I27" s="3">
         <v>-20100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>35800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1880,13 +1937,16 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>4</v>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>4</v>
@@ -1894,8 +1954,8 @@
       <c r="F29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1907,40 +1967,43 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L29" s="3">
         <v>-100</v>
       </c>
       <c r="M29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N29" s="3">
         <v>-3700</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-7700</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
+      <c r="T29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1998,8 +2061,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2057,38 +2123,41 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>6900</v>
+      </c>
+      <c r="I32" s="3">
+        <v>3700</v>
+      </c>
+      <c r="J32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="L32" s="3">
         <v>-800</v>
       </c>
-      <c r="H32" s="3">
-        <v>3700</v>
-      </c>
-      <c r="I32" s="3">
-        <v>2900</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-10400</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-800</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2096,17 +2165,17 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>1200</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2116,67 +2185,73 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-62700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-14300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-18100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-10200</v>
       </c>
-      <c r="G33" s="3">
-        <v>-9400</v>
-      </c>
       <c r="H33" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="I33" s="3">
         <v>-20100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>35800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2200</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-4100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2234,131 +2309,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-62700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-14300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-18100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-10200</v>
       </c>
-      <c r="G35" s="3">
-        <v>-9400</v>
-      </c>
       <c r="H35" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="I35" s="3">
         <v>-20100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>35800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2200</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-4100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2380,8 +2464,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2403,103 +2488,107 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>32700</v>
+      </c>
+      <c r="E41" s="3">
         <v>32300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>44300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>28100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>42400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>26500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>28300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2500</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6200</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E42" s="3">
         <v>23300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>26900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>43900</v>
       </c>
-      <c r="G42" s="3">
-        <v>51100</v>
-      </c>
       <c r="H42" s="3">
+        <v>29000</v>
+      </c>
+      <c r="I42" s="3">
         <v>35000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>21000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>29400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>6200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>200</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2515,26 +2604,29 @@
       <c r="S42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
+      <c r="T42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>700</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2550,38 +2642,41 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43" s="3">
         <v>500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>700</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2639,38 +2734,41 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E45" s="3">
         <v>12700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
+        <v>18900</v>
+      </c>
+      <c r="I45" s="3">
         <v>3100</v>
       </c>
-      <c r="H45" s="3">
-        <v>3100</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>10400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2100</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
@@ -2678,101 +2776,107 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>700</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>64400</v>
+      </c>
+      <c r="E46" s="3">
         <v>68400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>78400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>78300</v>
       </c>
-      <c r="G46" s="3">
-        <v>96600</v>
-      </c>
       <c r="H46" s="3">
+        <v>90300</v>
+      </c>
+      <c r="I46" s="3">
         <v>64600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>59600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>34500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>12100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>10100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7600</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E47" s="3">
         <v>2400</v>
-      </c>
-      <c r="E47" s="3">
-        <v>300</v>
       </c>
       <c r="F47" s="3">
         <v>300</v>
       </c>
       <c r="G47" s="3">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="H47" s="3">
         <v>1000</v>
@@ -2783,8 +2887,8 @@
       <c r="J47" s="3">
         <v>1000</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
+      <c r="K47" s="3">
+        <v>1000</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>4</v>
@@ -2801,8 +2905,8 @@
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -2816,52 +2920,55 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E48" s="3">
         <v>80700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>90000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>28700</v>
       </c>
-      <c r="G48" s="3">
-        <v>32500</v>
-      </c>
       <c r="H48" s="3">
+        <v>71600</v>
+      </c>
+      <c r="I48" s="3">
         <v>30000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>36000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>28200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>29800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>17700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4400</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
       <c r="O48" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="P48" s="3">
         <v>700</v>
       </c>
       <c r="Q48" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="R48" s="3">
         <v>100</v>
@@ -2872,11 +2979,14 @@
       <c r="T48" s="3">
         <v>100</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>100</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2934,8 +3044,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2993,8 +3106,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3052,67 +3168,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E52" s="3">
         <v>13300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>10200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>62300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>49900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>14800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>11500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>14400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1300</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" s="3">
         <v>6900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1300</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3170,67 +3292,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>100400</v>
+      </c>
+      <c r="E54" s="3">
         <v>164700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>179000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>169600</v>
       </c>
-      <c r="G54" s="3">
-        <v>179900</v>
-      </c>
       <c r="H54" s="3">
+        <v>173700</v>
+      </c>
+      <c r="I54" s="3">
         <v>110400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>108100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>78100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>39900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>20600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>14000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>15300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>13000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9000</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3252,8 +3380,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3275,44 +3404,45 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E57" s="3">
         <v>2100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2500</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1400</v>
       </c>
       <c r="K57" s="3">
         <v>1400</v>
       </c>
       <c r="L57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3325,8 +3455,8 @@
       <c r="R57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S57" s="3">
-        <v>0</v>
+      <c r="S57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T57" s="3">
         <v>0</v>
@@ -3334,8 +3464,11 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3357,12 +3490,12 @@
       <c r="I58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K58" s="3">
         <v>1300</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3378,8 +3511,8 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3393,126 +3526,135 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>400</v>
-      </c>
-      <c r="K59" s="3">
-        <v>500</v>
       </c>
       <c r="L59" s="3">
         <v>500</v>
       </c>
       <c r="M59" s="3">
+        <v>500</v>
+      </c>
+      <c r="N59" s="3">
         <v>1100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2400</v>
-      </c>
-      <c r="P59" s="3">
-        <v>400</v>
       </c>
       <c r="Q59" s="3">
         <v>400</v>
       </c>
       <c r="R59" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="S59" s="3">
         <v>500</v>
       </c>
       <c r="T59" s="3">
+        <v>500</v>
+      </c>
+      <c r="U59" s="3">
         <v>400</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E60" s="3">
         <v>3500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2400</v>
-      </c>
-      <c r="P60" s="3">
-        <v>400</v>
       </c>
       <c r="Q60" s="3">
         <v>400</v>
       </c>
       <c r="R60" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="S60" s="3">
         <v>500</v>
       </c>
       <c r="T60" s="3">
+        <v>500</v>
+      </c>
+      <c r="U60" s="3">
         <v>400</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3570,8 +3712,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3579,25 +3724,25 @@
         <v>3000</v>
       </c>
       <c r="E62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F62" s="3">
         <v>2900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>700</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
@@ -3614,8 +3759,8 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3629,8 +3774,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3688,8 +3836,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3747,8 +3898,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3806,67 +3960,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E66" s="3">
         <v>6400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1300</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3888,8 +4048,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3947,8 +4108,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4006,8 +4170,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4027,7 +4194,7 @@
         <v>9100</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>9100</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -4065,8 +4232,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4124,67 +4294,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-131400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-62500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-48200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-30100</v>
       </c>
-      <c r="G72" s="3">
-        <v>-19900</v>
-      </c>
       <c r="H72" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="I72" s="3">
         <v>-10400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>18700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>20100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-15700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-18400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-17900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-13800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-10800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-200</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4242,8 +4418,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4301,8 +4480,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4360,67 +4542,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>80900</v>
+      </c>
+      <c r="E76" s="3">
         <v>149200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>162900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>152800</v>
       </c>
-      <c r="G76" s="3">
-        <v>162600</v>
-      </c>
       <c r="H76" s="3">
+        <v>156400</v>
+      </c>
+      <c r="I76" s="3">
         <v>97000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>104800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>75000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>38000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>19900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>11800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>11600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7700</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4478,131 +4666,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-62700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-14300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-18100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-10200</v>
       </c>
-      <c r="G81" s="3">
-        <v>-9400</v>
-      </c>
       <c r="H81" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="I81" s="3">
         <v>-20100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>35800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2200</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-4100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4624,52 +4821,53 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E83" s="3">
         <v>9300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
       <c r="O83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P83" s="3">
         <v>100</v>
       </c>
       <c r="Q83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -4683,8 +4881,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4742,8 +4943,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4801,8 +5005,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4860,8 +5067,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4919,8 +5129,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4978,67 +5191,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E89" s="3">
         <v>8200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-8600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6700</v>
       </c>
-      <c r="G89" s="3">
-        <v>-15600</v>
-      </c>
       <c r="H89" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="I89" s="3">
         <v>-2800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2300</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-2500</v>
       </c>
       <c r="K89" s="3">
         <v>-2500</v>
       </c>
       <c r="L89" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="M89" s="3">
         <v>-7700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5060,53 +5279,54 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="E91" s="3">
-        <v>-8300</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="G91" s="3">
         <v>-11100</v>
       </c>
-      <c r="G91" s="3">
-        <v>-5700</v>
-      </c>
       <c r="H91" s="3">
+        <v>-46000</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>6700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-800</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
@@ -5117,10 +5337,13 @@
         <v>0</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5178,8 +5401,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5237,53 +5463,56 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-20200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>3800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-43700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>8600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-10700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-900</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
@@ -5294,10 +5523,13 @@
         <v>0</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5319,8 +5551,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5378,8 +5611,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5437,8 +5673,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5496,8 +5735,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5555,67 +5797,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>21000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>71700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>28500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>6500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>13500</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q100" s="3">
         <v>5900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>5700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-400</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5656,80 +5904,86 @@
         <v>0</v>
       </c>
       <c r="P101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q101" s="3">
         <v>-100</v>
       </c>
       <c r="R101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S101" s="3">
         <v>300</v>
-      </c>
-      <c r="S101" s="3">
-        <v>100</v>
       </c>
       <c r="T101" s="3">
         <v>100</v>
       </c>
       <c r="U101" s="3">
+        <v>100</v>
+      </c>
+      <c r="V101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-12000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>16200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-13000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>15900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>28000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>5100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>6700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BTBT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BTBT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>BTBT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,207 +665,221 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F8" s="3">
         <v>7800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>9100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>6800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>8600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>13400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>10400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>28300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>44000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>20400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>7900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>700</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>4500</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
         <v>4900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>4200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F9" s="3">
         <v>6000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>6500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>3600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>4300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>4800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>2600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>10900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>12500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>13400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>6200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>700</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
+      <c r="R9" s="3">
+        <v>0</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>4</v>
@@ -879,56 +893,62 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F10" s="3">
         <v>1800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>2600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>3200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>4300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>8600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>7800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>17400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>31500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>7000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1700</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3">
         <v>4500</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
@@ -941,8 +961,14 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -965,8 +991,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1006,29 +1034,35 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3">
         <v>400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1089,38 +1123,44 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F14" s="3">
         <v>48600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>2400</v>
       </c>
-      <c r="F14" s="3">
-        <v>13600</v>
-      </c>
-      <c r="G14" s="3">
-        <v>10000</v>
-      </c>
       <c r="H14" s="3">
+        <v>27000</v>
+      </c>
+      <c r="I14" s="3">
+        <v>14700</v>
+      </c>
+      <c r="J14" s="3">
         <v>18900</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>9000</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1133,11 +1173,11 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1151,70 +1191,82 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F15" s="3">
         <v>9400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>9300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>5300</v>
-      </c>
-      <c r="G15" s="3">
-        <v>3800</v>
-      </c>
-      <c r="H15" s="3">
-        <v>3300</v>
       </c>
       <c r="I15" s="3">
         <v>3800</v>
       </c>
       <c r="J15" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K15" s="3">
+        <v>3800</v>
+      </c>
+      <c r="L15" s="3">
         <v>2300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>3700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>3300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>1200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>100</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q15" s="3">
         <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>4</v>
+      <c r="S15" s="3">
+        <v>0</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
-      <c r="V15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1234,132 +1286,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F17" s="3">
         <v>70300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>23400</v>
       </c>
-      <c r="F17" s="3">
-        <v>27100</v>
-      </c>
-      <c r="G17" s="3">
-        <v>22400</v>
-      </c>
       <c r="H17" s="3">
+        <v>24700</v>
+      </c>
+      <c r="I17" s="3">
+        <v>14900</v>
+      </c>
+      <c r="J17" s="3">
         <v>19300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>26000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>26600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>18300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>18900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>7800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>9800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>5700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>4700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-62500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-14300</v>
       </c>
-      <c r="F18" s="3">
-        <v>-20300</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-13800</v>
-      </c>
       <c r="H18" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="J18" s="3">
         <v>-5900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-15600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>25700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-2000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1382,132 +1448,146 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>800</v>
+      </c>
+      <c r="F20" s="3">
         <v>-700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>3400</v>
-      </c>
-      <c r="G20" s="3">
-        <v>2300</v>
-      </c>
       <c r="H20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I20" s="3">
+        <v>600</v>
+      </c>
+      <c r="J20" s="3">
         <v>-6900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-3700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-2900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>10400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>800</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-53900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-4800</v>
       </c>
-      <c r="F21" s="3">
-        <v>-11600</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-7700</v>
-      </c>
       <c r="H21" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="J21" s="3">
         <v>-9500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-15400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>39700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>5500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-2000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-1800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-700</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-400</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-400</v>
       </c>
       <c r="U21" s="3">
         <v>-400</v>
       </c>
       <c r="V21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X21" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1568,132 +1648,150 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-63300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-14100</v>
       </c>
-      <c r="F23" s="3">
-        <v>-17000</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-11500</v>
-      </c>
       <c r="H23" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="J23" s="3">
         <v>-12800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-19200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>36100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>2300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-2000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
         <v>-600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-1400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>2500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>4</v>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>100</v>
-      </c>
-      <c r="S24" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T24" s="3">
-        <v>-100</v>
       </c>
       <c r="U24" s="3">
         <v>-100</v>
       </c>
       <c r="V24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1754,132 +1852,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-62700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-14300</v>
       </c>
-      <c r="F26" s="3">
-        <v>-18100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-10200</v>
-      </c>
       <c r="H26" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="J26" s="3">
         <v>-15300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-20100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>35800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>2300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-2000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-62700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-14300</v>
       </c>
-      <c r="F27" s="3">
-        <v>-18100</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-10200</v>
-      </c>
       <c r="H27" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="J27" s="3">
         <v>-15300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-20100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>35800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>2300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-6500</v>
       </c>
       <c r="Q27" s="3">
         <v>-1800</v>
       </c>
       <c r="R27" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="T27" s="3">
         <v>-700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1940,28 +2056,34 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>4</v>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1970,40 +2092,46 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>-100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>-3700</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>-7700</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S29" s="3">
         <v>-1600</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2064,8 +2192,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2126,132 +2260,150 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F32" s="3">
         <v>700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-2300</v>
-      </c>
       <c r="H32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J32" s="3">
         <v>6900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>3700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>2900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-10400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-800</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>1200</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-62700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-14300</v>
       </c>
-      <c r="F33" s="3">
-        <v>-18100</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-10200</v>
-      </c>
       <c r="H33" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="J33" s="3">
         <v>-15300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-20100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>35800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>2200</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-4100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-9500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-3400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2312,137 +2464,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-62700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-14300</v>
       </c>
-      <c r="F35" s="3">
-        <v>-18100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-10200</v>
-      </c>
       <c r="H35" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="J35" s="3">
         <v>-15300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-20100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>35800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>2200</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-4100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-9500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-3400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2465,8 +2635,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2489,112 +2661,120 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>27900</v>
+      </c>
+      <c r="F41" s="3">
         <v>32700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>32300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>44300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>28100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>42400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>26500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>28300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2500</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>2300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>10000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>5500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>5600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>6200</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E42" s="3">
+        <v>27100</v>
+      </c>
+      <c r="F42" s="3">
         <v>27600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>23300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>26900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>43900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>29000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>35000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>21000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>29400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>6200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>200</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2607,14 +2787,20 @@
       <c r="T42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
-      </c>
-      <c r="V42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2622,17 +2808,17 @@
         <v>700</v>
       </c>
       <c r="E43" s="3">
+        <v>700</v>
+      </c>
+      <c r="F43" s="3">
+        <v>700</v>
+      </c>
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2645,38 +2831,44 @@
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="3">
         <v>500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>700</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2737,152 +2929,170 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F45" s="3">
         <v>3400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>12700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>7000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>6300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>18900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>3100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>10400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>4900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>2100</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
       <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>3200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>4300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>3900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>700</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>58700</v>
+      </c>
+      <c r="F46" s="3">
         <v>64400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>68400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>78400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>78300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>90300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>64600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>59600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>34500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>8700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>3000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>5700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>12100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>10100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>9600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>7600</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E47" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F47" s="3">
         <v>1800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>2400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>300</v>
-      </c>
-      <c r="H47" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I47" s="3">
-        <v>1000</v>
       </c>
       <c r="J47" s="3">
         <v>1000</v>
@@ -2890,11 +3100,11 @@
       <c r="K47" s="3">
         <v>1000</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
+      <c r="L47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M47" s="3">
+        <v>1000</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>4</v>
@@ -2908,11 +3118,11 @@
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
-      </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -2923,58 +3133,64 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>19000</v>
+      </c>
+      <c r="F48" s="3">
         <v>22600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>80700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>90000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>28700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>71600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>30000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>36000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>28200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>29800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>17700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>4400</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
         <v>700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>700</v>
-      </c>
-      <c r="R48" s="3">
-        <v>100</v>
-      </c>
-      <c r="S48" s="3">
-        <v>100</v>
       </c>
       <c r="T48" s="3">
         <v>100</v>
@@ -2982,11 +3198,17 @@
       <c r="U48" s="3">
         <v>100</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>100</v>
+      </c>
+      <c r="W48" s="3">
+        <v>100</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3047,8 +3269,14 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3109,8 +3337,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3171,70 +3405,82 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F52" s="3">
         <v>11600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>13300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>10200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>62300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>49900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>14800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>11500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>14400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1300</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P52" s="3">
         <v>6900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>4000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>5400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>6100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>3100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>2800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>3300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>1300</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3295,8 +3541,14 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3304,61 +3556,67 @@
         <v>100400</v>
       </c>
       <c r="E54" s="3">
+        <v>92200</v>
+      </c>
+      <c r="F54" s="3">
+        <v>100400</v>
+      </c>
+      <c r="G54" s="3">
         <v>164700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>179000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>169600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>173700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>110400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>108100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>78100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>39900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>20600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>14000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>4500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>7500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>12500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>15300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>12900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>13000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>9000</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3381,8 +3639,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3405,50 +3665,52 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>900</v>
+      </c>
+      <c r="F57" s="3">
         <v>3600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>3500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>3000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3458,50 +3720,56 @@
       <c r="S57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T57" s="3">
-        <v>0</v>
-      </c>
-      <c r="U57" s="3">
-        <v>0</v>
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M58" s="3">
         <v>1300</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3514,11 +3782,11 @@
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -3529,132 +3797,150 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F59" s="3">
         <v>3800</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1300</v>
-      </c>
-      <c r="F59" s="3">
-        <v>2200</v>
       </c>
       <c r="G59" s="3">
         <v>1300</v>
       </c>
       <c r="H59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J59" s="3">
         <v>2400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1100</v>
-      </c>
-      <c r="O59" s="3">
-        <v>400</v>
-      </c>
-      <c r="P59" s="3">
-        <v>2400</v>
       </c>
       <c r="Q59" s="3">
         <v>400</v>
       </c>
       <c r="R59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="S59" s="3">
         <v>400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
+        <v>400</v>
+      </c>
+      <c r="U59" s="3">
         <v>500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>400</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F60" s="3">
         <v>7400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>4100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>5000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1200</v>
-      </c>
-      <c r="O60" s="3">
-        <v>400</v>
-      </c>
-      <c r="P60" s="3">
-        <v>2400</v>
       </c>
       <c r="Q60" s="3">
         <v>400</v>
       </c>
       <c r="R60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="S60" s="3">
         <v>400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
+        <v>400</v>
+      </c>
+      <c r="U60" s="3">
         <v>500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>400</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3715,40 +4001,46 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F62" s="3">
         <v>3000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>3000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>3200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>700</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
@@ -3762,11 +4054,11 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -3777,8 +4069,14 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3839,8 +4137,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3901,8 +4205,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3963,70 +4273,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F66" s="3">
         <v>10500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>6400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>7000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>7700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>8300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1300</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4049,8 +4371,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4111,8 +4435,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4173,8 +4503,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4197,10 +4533,10 @@
         <v>9100</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>9100</v>
       </c>
       <c r="K70" s="3">
-        <v>0</v>
+        <v>9100</v>
       </c>
       <c r="L70" s="3">
         <v>0</v>
@@ -4235,8 +4571,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4297,70 +4639,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-136900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-134500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-131400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-62500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-48200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-30100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-26100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-10400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>18700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>20100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-15700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-18400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-17900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-13800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-10800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-4300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-1600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-200</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4421,8 +4775,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4483,8 +4843,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4545,70 +4911,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>82700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>77900</v>
+      </c>
+      <c r="F76" s="3">
         <v>80900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>149200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>162900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>152800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>156400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>97000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>104800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>75000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>38000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>19900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>12500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>3800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>5200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>11600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>14300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>11800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>11600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>7700</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4669,137 +5047,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-62700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-14300</v>
       </c>
-      <c r="F81" s="3">
-        <v>-18100</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-10200</v>
-      </c>
       <c r="H81" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="J81" s="3">
         <v>-15300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-20100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>35800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>2200</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-4100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-9500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-3400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4822,58 +5218,60 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F83" s="3">
         <v>9400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>9300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>5300</v>
-      </c>
-      <c r="G83" s="3">
-        <v>3800</v>
-      </c>
-      <c r="H83" s="3">
-        <v>3300</v>
       </c>
       <c r="I83" s="3">
         <v>3800</v>
       </c>
       <c r="J83" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K83" s="3">
+        <v>3800</v>
+      </c>
+      <c r="L83" s="3">
         <v>2300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>3700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>3300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>1200</v>
-      </c>
-      <c r="N83" s="3">
-        <v>100</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
       </c>
       <c r="P83" s="3">
         <v>100</v>
       </c>
       <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
         <v>100</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
       <c r="S83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -4884,8 +5282,14 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4946,8 +5350,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5008,8 +5418,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5070,8 +5486,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5132,8 +5554,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5194,70 +5622,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1400</v>
       </c>
-      <c r="E89" s="3">
-        <v>8200</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-8600</v>
-      </c>
       <c r="G89" s="3">
-        <v>-6700</v>
+        <v>-9000</v>
       </c>
       <c r="H89" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I89" s="3">
+        <v>300</v>
+      </c>
+      <c r="J89" s="3">
         <v>-9700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-2800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-2300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-2500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-2500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-7700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-5100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-1300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5280,59 +5720,61 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-2000</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-10300</v>
-      </c>
       <c r="G91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="I91" s="3">
         <v>-11100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-46000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>6700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-7600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-11200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3">
         <v>-800</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
@@ -5340,10 +5782,16 @@
         <v>0</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5404,8 +5852,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5466,59 +5920,65 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F94" s="3">
         <v>2000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-20200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>3800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-4100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-43700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>1800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>1100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>8600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-10700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-900</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3">
         <v>-3300</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
@@ -5526,10 +5986,16 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5552,8 +6018,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5614,8 +6082,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5676,8 +6150,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5738,8 +6218,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5800,70 +6286,82 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>21000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-2200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>71700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>4700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>28500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-8300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>6500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>13500</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S100" s="3">
         <v>5900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>5700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-400</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5907,83 +6405,95 @@
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-12000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>16200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-13000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>15900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-1800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>28000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-2100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-2300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-2500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>5100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-1200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>6700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BTBT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BTBT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
   <si>
     <t>BTBT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,224 +665,231 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E8" s="3">
         <v>9000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>13400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>28300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>44000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>20400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>700</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>4500</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
       <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
         <v>4900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4200</v>
-      </c>
-      <c r="V8" s="3">
-        <v>1400</v>
       </c>
       <c r="W8" s="3">
         <v>1400</v>
       </c>
       <c r="X8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Y8" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E9" s="3">
         <v>5700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>12500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>13400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>700</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>4</v>
@@ -899,59 +906,62 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E10" s="3">
         <v>3300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>17400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>31500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1700</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3">
         <v>4500</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
@@ -967,8 +977,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -993,8 +1006,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1040,29 +1054,32 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3">
         <v>400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>200</v>
-      </c>
-      <c r="T12" s="3">
-        <v>300</v>
       </c>
       <c r="U12" s="3">
         <v>300</v>
       </c>
       <c r="V12" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="W12" s="3">
         <v>100</v>
       </c>
       <c r="X12" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y12" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1129,41 +1146,44 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E14" s="3">
         <v>1400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>48600</v>
       </c>
-      <c r="G14" s="3">
-        <v>2400</v>
-      </c>
       <c r="H14" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I14" s="3">
         <v>27000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>14700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>18900</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>9000</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1179,8 +1199,8 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1197,61 +1217,64 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E15" s="3">
         <v>3700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>3600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>9400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>9300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>5300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>3800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>100</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>4</v>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>4</v>
@@ -1259,14 +1282,17 @@
       <c r="V15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
+      <c r="W15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1288,144 +1314,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E17" s="3">
         <v>11700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>70300</v>
       </c>
-      <c r="G17" s="3">
-        <v>23400</v>
-      </c>
       <c r="H17" s="3">
+        <v>23500</v>
+      </c>
+      <c r="I17" s="3">
         <v>24700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>19300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>26000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>26600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>18300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>18900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4700</v>
-      </c>
-      <c r="V17" s="3">
-        <v>1800</v>
       </c>
       <c r="W17" s="3">
         <v>1800</v>
       </c>
       <c r="X17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Y17" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-62500</v>
       </c>
-      <c r="G18" s="3">
-        <v>-14300</v>
-      </c>
       <c r="H18" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="I18" s="3">
         <v>-17900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-15600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>25700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-5300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-500</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-400</v>
       </c>
       <c r="W18" s="3">
         <v>-400</v>
       </c>
       <c r="X18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Y18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1450,47 +1483,48 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-6900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>10400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>800</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1498,17 +1532,17 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-1200</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
@@ -1518,64 +1552,67 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1400</v>
+        <v>-3500</v>
       </c>
       <c r="E21" s="3">
         <v>1400</v>
       </c>
       <c r="F21" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G21" s="3">
         <v>-53900</v>
       </c>
-      <c r="G21" s="3">
-        <v>-4800</v>
-      </c>
       <c r="H21" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="I21" s="3">
         <v>-11300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-9500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-15400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>39700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>5500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-6400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-700</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-400</v>
       </c>
       <c r="V21" s="3">
         <v>-400</v>
@@ -1584,10 +1621,13 @@
         <v>-400</v>
       </c>
       <c r="X21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Y21" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1654,76 +1694,82 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-63300</v>
       </c>
-      <c r="G23" s="3">
-        <v>-14100</v>
-      </c>
       <c r="H23" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="I23" s="3">
         <v>-16600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-12800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-19200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>36100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-6500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-500</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-400</v>
       </c>
       <c r="W23" s="3">
         <v>-400</v>
       </c>
       <c r="X23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Y23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1734,32 +1780,32 @@
         <v>100</v>
       </c>
       <c r="F24" s="3">
+        <v>100</v>
+      </c>
+      <c r="G24" s="3">
         <v>-600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
@@ -1769,17 +1815,17 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S24" s="3">
-        <v>0</v>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>100</v>
-      </c>
-      <c r="U24" s="3">
-        <v>-100</v>
       </c>
       <c r="V24" s="3">
         <v>-100</v>
@@ -1788,10 +1834,13 @@
         <v>-100</v>
       </c>
       <c r="X24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1858,144 +1907,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-62700</v>
       </c>
-      <c r="G26" s="3">
-        <v>-14300</v>
-      </c>
       <c r="H26" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="I26" s="3">
         <v>-17800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-15300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-20100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>35800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-6500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-400</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-300</v>
       </c>
       <c r="W26" s="3">
         <v>-300</v>
       </c>
       <c r="X26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-62700</v>
       </c>
-      <c r="G27" s="3">
-        <v>-14300</v>
-      </c>
       <c r="H27" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="I27" s="3">
         <v>-17800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-15300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-20100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>35800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-6500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2062,8 +2120,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2073,11 +2134,11 @@
       <c r="E29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>4</v>
+      <c r="F29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>4</v>
@@ -2085,8 +2146,8 @@
       <c r="I29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -2098,40 +2159,43 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O29" s="3">
         <v>-100</v>
       </c>
       <c r="P29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-7700</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T29" s="3">
         <v>-1600</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
+      <c r="W29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2198,8 +2262,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2266,47 +2333,50 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>6900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-10400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-800</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2314,17 +2384,17 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>1200</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
@@ -2334,76 +2404,82 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-62700</v>
       </c>
-      <c r="G33" s="3">
-        <v>-14300</v>
-      </c>
       <c r="H33" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="I33" s="3">
         <v>-17800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-15300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-20100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>35800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2200</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-9500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-6500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2470,149 +2546,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-62700</v>
       </c>
-      <c r="G35" s="3">
-        <v>-14300</v>
-      </c>
       <c r="H35" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="I35" s="3">
         <v>-17800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-15300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-20100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>35800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2200</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-9500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-6500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2637,8 +2722,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2663,121 +2749,125 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E41" s="3">
         <v>18500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>27900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>32700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>32300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>44300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>28100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>42400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>26500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>28300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2500</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>10000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6200</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>40200</v>
+      </c>
+      <c r="E42" s="3">
         <v>31600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>27100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>27600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>23300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>26900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>43900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>29000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>35000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>21000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>29400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>6200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>200</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2793,14 +2883,17 @@
       <c r="V42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W42" s="3">
-        <v>0</v>
+      <c r="W42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2814,14 +2907,14 @@
         <v>700</v>
       </c>
       <c r="G43" s="3">
+        <v>800</v>
+      </c>
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2837,38 +2930,41 @@
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R43" s="3">
         <v>500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>700</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2935,47 +3031,50 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E45" s="3">
         <v>5200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>18900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2100</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
@@ -2983,119 +3082,125 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>700</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>66500</v>
+      </c>
+      <c r="E46" s="3">
         <v>56000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>58700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>64400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>68400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>78400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>78300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>90300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>64600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>59600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>34500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>12100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>10100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>9600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>7600</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E47" s="3">
         <v>5400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2400</v>
-      </c>
-      <c r="H47" s="3">
-        <v>300</v>
       </c>
       <c r="I47" s="3">
         <v>300</v>
       </c>
       <c r="J47" s="3">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="K47" s="3">
         <v>1000</v>
@@ -3106,8 +3211,8 @@
       <c r="M47" s="3">
         <v>1000</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
+      <c r="N47" s="3">
+        <v>1000</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>4</v>
@@ -3124,8 +3229,8 @@
       <c r="S47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U47" s="3">
         <v>0</v>
@@ -3139,61 +3244,64 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E48" s="3">
         <v>24500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>19000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>22600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>80700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>90000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>28700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>71600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>30000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>36000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>28200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>29800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>17700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4400</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
       <c r="R48" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="S48" s="3">
         <v>700</v>
       </c>
       <c r="T48" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="U48" s="3">
         <v>100</v>
@@ -3204,11 +3312,14 @@
       <c r="W48" s="3">
         <v>100</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3275,8 +3386,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3343,8 +3457,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3411,76 +3528,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E52" s="3">
         <v>14400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>10200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>11600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>13300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>10200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>62300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>49900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>14800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>11500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>14400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1300</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q52" s="3">
         <v>6900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>6100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1300</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3547,76 +3670,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>108700</v>
+      </c>
+      <c r="E54" s="3">
         <v>100400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>92200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>100400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>164700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>179000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>169600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>173700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>110400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>108100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>78100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>39900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>20600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>14000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>15300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>12900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>13000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>9000</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3641,8 +3770,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3667,53 +3797,54 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
         <v>1400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2500</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1400</v>
       </c>
       <c r="N57" s="3">
         <v>1400</v>
       </c>
       <c r="O57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>100</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3726,8 +3857,8 @@
       <c r="U57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V57" s="3">
-        <v>0</v>
+      <c r="V57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W57" s="3">
         <v>0</v>
@@ -3735,8 +3866,11 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3761,18 +3895,18 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" s="3">
         <v>1300</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3788,8 +3922,8 @@
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -3803,144 +3937,153 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E59" s="3">
         <v>4000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
-      </c>
-      <c r="N59" s="3">
-        <v>500</v>
       </c>
       <c r="O59" s="3">
         <v>500</v>
       </c>
       <c r="P59" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2400</v>
-      </c>
-      <c r="S59" s="3">
-        <v>400</v>
       </c>
       <c r="T59" s="3">
         <v>400</v>
       </c>
       <c r="U59" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="V59" s="3">
         <v>500</v>
       </c>
       <c r="W59" s="3">
+        <v>500</v>
+      </c>
+      <c r="X59" s="3">
         <v>400</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E60" s="3">
         <v>5400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2100</v>
       </c>
-      <c r="F60" s="3">
-        <v>7400</v>
-      </c>
       <c r="G60" s="3">
+        <v>7500</v>
+      </c>
+      <c r="H60" s="3">
         <v>3500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2400</v>
-      </c>
-      <c r="S60" s="3">
-        <v>400</v>
       </c>
       <c r="T60" s="3">
         <v>400</v>
       </c>
       <c r="U60" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="V60" s="3">
         <v>500</v>
       </c>
       <c r="W60" s="3">
+        <v>500</v>
+      </c>
+      <c r="X60" s="3">
         <v>400</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4007,8 +4150,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4016,34 +4162,34 @@
         <v>3200</v>
       </c>
       <c r="E62" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F62" s="3">
         <v>3100</v>
-      </c>
-      <c r="F62" s="3">
-        <v>3000</v>
       </c>
       <c r="G62" s="3">
         <v>3000</v>
       </c>
       <c r="H62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I62" s="3">
         <v>2900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>700</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
@@ -4060,8 +4206,8 @@
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -4075,8 +4221,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4143,8 +4292,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4211,8 +4363,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4279,76 +4434,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E66" s="3">
         <v>8600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1300</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4373,8 +4534,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4441,8 +4603,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4509,8 +4674,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4539,7 +4707,7 @@
         <v>9100</v>
       </c>
       <c r="L70" s="3">
-        <v>0</v>
+        <v>9100</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
@@ -4577,8 +4745,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4645,76 +4816,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-144100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-136900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-134500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-131400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-62500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-48200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-30100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-26100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>18700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>20100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-15700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-18400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-17900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-13800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-10800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-4300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-200</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4781,8 +4958,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4849,8 +5029,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4917,76 +5100,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>94200</v>
+      </c>
+      <c r="E76" s="3">
         <v>82700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>77900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>80900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>149200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>162900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>152800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>156400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>97000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>104800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>75000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>38000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>19900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>11600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>14300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>11800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>11600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>7700</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5053,149 +5242,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-62700</v>
       </c>
-      <c r="G81" s="3">
-        <v>-14300</v>
-      </c>
       <c r="H81" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="I81" s="3">
         <v>-17800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-15300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-20100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>35800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2200</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-9500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-6500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5220,61 +5418,62 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E83" s="3">
         <v>3700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>9400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>9300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>5300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>100</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
       <c r="R83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S83" s="3">
         <v>100</v>
       </c>
       <c r="T83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
@@ -5288,8 +5487,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5356,8 +5558,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5424,8 +5629,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5492,8 +5700,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5560,8 +5771,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5628,76 +5842,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-9000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-9700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2300</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-2500</v>
       </c>
       <c r="N89" s="3">
         <v>-2500</v>
       </c>
       <c r="O89" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="P89" s="3">
         <v>-7700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-5100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5722,62 +5942,63 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-8300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-11100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-46000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>6700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T91" s="3">
         <v>-800</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
@@ -5788,10 +6009,13 @@
         <v>0</v>
       </c>
       <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5858,8 +6082,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5926,62 +6153,65 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-8200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2500</v>
       </c>
-      <c r="F94" s="3">
-        <v>2000</v>
-      </c>
       <c r="G94" s="3">
-        <v>-20200</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="I94" s="3">
         <v>3800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-43700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>8600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-900</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T94" s="3">
         <v>-3300</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
@@ -5992,10 +6222,13 @@
         <v>0</v>
       </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6020,8 +6253,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6088,8 +6322,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6156,8 +6393,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6224,8 +6464,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6292,76 +6535,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E100" s="3">
         <v>6700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>21000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>71700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>28500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-8300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>6500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>13500</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T100" s="3">
         <v>5900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>5700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-400</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6411,89 +6660,95 @@
         <v>0</v>
       </c>
       <c r="S101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T101" s="3">
         <v>-100</v>
       </c>
       <c r="U101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V101" s="3">
         <v>300</v>
-      </c>
-      <c r="V101" s="3">
-        <v>100</v>
       </c>
       <c r="W101" s="3">
         <v>100</v>
       </c>
       <c r="X101" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-9400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-12000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>16200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-13000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>15900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>28000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>5100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>6700</v>
       </c>
     </row>
